--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,360 +13,365 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$69</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="229">
   <si>
     <t>logic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Campaign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GameMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Simulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>persistence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CellSerialization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EquipmentFileManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FileManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapFileManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerFileManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ObstacleControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EquipmentDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EquipmentSelectorPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapSelectorPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Panel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ui/scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CampaignEditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ItemEditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GameMapLayerView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GameMapView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GlassView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ImageView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NavigationView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TextDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>extends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Observable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Cell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JsonSerializer&lt;Cell&gt;, JsonDeserializer&lt;Cell&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Observer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Panel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GameMapView.Delegate, PlayerDelegate, EquipmentDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>abstract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Entrance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Obstacle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ui/controlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ChestControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EmptyControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ExitControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ui/panel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BackpackPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CampaignSelectorPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapConnectionPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerSelectorPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CampaignCreationScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EditorScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ItemCreationScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MainScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapCreationScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapEditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerCreationScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerEditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ui/view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AbilityView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EquipmentView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>categories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>implements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-----</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>psvm，整个项目的启动类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Cell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># Point location
 # String imageName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- int x
 - int y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- Equipment equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,11 +408,11 @@
       </rPr>
       <t>的返回值</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>methods &amp; notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -455,7 +460,7 @@
       </rPr>
       <t>的值</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -503,7 +508,7 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -546,31 +551,31 @@
 - String name
 - int hp</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CampaignFileManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- Chest chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># MapEditingScene mapEditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EntranceControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- Player player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- Player player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -589,60 +594,60 @@
       <t>（red：super class
 blue: interface）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EquipmentDelegate, PlayerDelegate, MapDelegate, CampaignDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>角色扮演非常好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hashCode()?
 + Point add(Point delta)注释写的时add poitn，我觉得是用于移动的。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第100行，为什么从index 0 开始截取？filePath里面是有路径的吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>199行开始的测试连通性没有看懂；这个是赵哲写的，不用太看懂了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>+ static void stringToFile(String content, File file)干嘛的这个
 + static String fileToString(File file)干嘛的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- CampaignDelegate campaignDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>目前是默认chest中只有一个equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三个筛子点数产生静态函数
 + static int rool(int face)
 + static int rool(int face, int modifier)
 + static int rool(int times, int face, int modifier)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>只在构造函数中做图片指定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>wall，只在构造函数中做图片指定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>各种公式的实现方法；
@@ -650,40 +655,40 @@
 默认是装备先进入backpack，然后再穿在身上
 对backpack捡扔的函数；
 对身上穿脱装备的函数；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>+ JsonElement serialize(Cell cell, Type type, JsonSerializationContext jsonSerializationContext)把一个cell对象变成一个JsonObject
 + Cell deserialize(JsonElement jsonElement, Type type, JsonDeserializationContext jsonDeserializationContext)把一个JsonObjext恢复成cell对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>和CampaignFileManager方法一样。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>img11右侧长条
 button触发：mapEditingScene.destroy()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>img09右侧长条
 button触发：mapEditingScene.destroy()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>img15右侧长条
 viewAttributesButton触发：mapEditingScene.hideAttributePanel()/mapEditingScene.showAttributePanel(player)
 viewBackpackButton触发：mapEditingScene.hideBackpackPanel()/mapEditingScene.showBackpackPanel(player)
 removeButton触发：mapEditingScene.destroy()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>img06里panel被复用
 在setPlayer里addObserver(this)观察player，接BACKPACK_CHANGE类型update，触发d2V函数
 循环打印backpackView
 equipButton触发：player.equip(equipment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>campaignSelectorPerformAction(CampaignSelectorPanel campaignSelectorPanel, Campaign campaign)
@@ -691,7 +696,7 @@
 委托人：CapaignSelectorPanel
 被委托人（实现类）：EditorScene
 实现类操作：新建CampaignEditingScene对象，并把委托人对应capaign对象赋给它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Campaign就是一个地图名字的List；
@@ -700,19 +705,19 @@
 增：add(String)
 删：removeMapName(int)
 validate()方法，只看List是否为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>父类；
 继承Obserable，所有子类也继承；
 两个属性和 getter setter
 各子类在构造方法中，对imageName赋值，给出对应图片png图片名字；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>+ boolean validate() 对type和enhancedAttribute的组合进行验证；对enhancedValue进行验证；
 @override toString()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>增：+ addCell(Cell cell, Point location) 把cell放入数组的location位置
@@ -723,36 +728,36 @@
 + List&lt;Exit&gt; getExits() 找到所有exits
 + String validate() 判断出入口数量是不是1；判断连通性？
 - boolean inMap(Point location)在判断连通性里调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>位置坐标
 + static LinkedList&lt;Point&gt; directions 这个函数给出了上右下左四个方向的piont得出一个LinkedList
 + Point add(Point delta)用于移动时的新坐标产生
 @override toString(), equals(), hashCode()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>+ static String nameToFileName(String name) 从用户指定的name生成fileName
 + static String fileNameToName(String fileName)
 + static void stringToFile(String content, File file)把apache类库里FileUtils.writeStringToFile(file, content, "UTF-8")方法，用try-catch抱起来，实现把内容放进文件，用UTF-8字符集存储的效果
 + static String fileToString(File file)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>img13右侧长条
 button触发：mapEditingScene.destroy()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>img08右侧长条
 button触发：mapEditingScene.build(new ..)/mapEditingScene.addChest()/mapEditingScene.addPlayer()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>img10右侧长条
 button触发：mapEditingScene.destroy()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1020,7 +1025,7 @@
       </rPr>
       <t>字符串分割截取文件名，之后变成对象名</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1050,7 +1055,7 @@
       <t>相关的标准写法，需要学会吗？存档，将来有需要可以来查；
 这些方法在哪里被调用呢？</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1184,136 +1189,136 @@
       <t>），之后调用view显示，button添加触发
 button触发：campaignDelegate.campaignSelectorPerformAction(CampaignSelectorPanel.this,campaign)把对象传给大scence做处理</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以002 editingScene 点editPlayer切换到006,搜索到一个item，然后点add加入背包为例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Player对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EquipmentSelectorPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BackpackPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时间推进 向下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调构造方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调initSubview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调构造方法，调initSubview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>new一个EquipmentPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>new一个BackPackPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有一个对象player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>player活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>delegator已被set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerEditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>new一个PlayerEditingScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>playerEditingScene.setPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>set自己的player；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调setter：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>call setter()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>player.observer(this)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>observers有了equipmentPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>equipmentSelectorPanel.setDelegate(this)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>backPackPanel.setPlayer()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>push新scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>show, paint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>点击add按钮，call delegate方法，传this和equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>执行delegator的实现方法
 player.pickup(equipment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>player的pickup方法被调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>notify所有的observer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接到notify，调用update()，repaint()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- EquipmentDelegate equipmentDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1355,12 +1360,12 @@
       </rPr>
       <t>getter &amp; setter</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>父类
 只是设置了背景色和title使用；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1393,7 +1398,7 @@
       </rPr>
       <t>的大小；title；back&amp;save按钮；contenView大小等</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1428,58 +1433,58 @@
       </rPr>
       <t>的一些方法</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># NavigationView navigationView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test/logic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CampaignTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EquipmentTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MapValidatorTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlayerTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test/persistence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FileManagerTest</t>
   </si>
   <si>
     <t>properties (important)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- MapDelegate mapDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>原理类似CampaingSelectorPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CampaignDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>原理类似CampaignDelegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1517,11 +1522,11 @@
 button触发：capaign.removeMapName(index)
 validateButton触发：campaignValidate()</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>问哲哲，这里把capaignValidate直接放在了button响应里，可以吗？当初怎么个声明周期考虑要放在外面?已备份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1662,27 +1667,27 @@
       </rPr>
       <t>playrer.unequip(equipment)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- Equipment equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>定义一个可以复用的小单位
 所有Text和对象实际属性值有关的label需要定义为属性，在initSubview()里只是定义label的大小位置等；
 所有setText()放在dataToView()里
 在setEquipment()里call d2V()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>定义一个可以复用的小单位
 值都是在大panel，setPlayer的时候，在d2V里面整体赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- View contentView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1733,7 +1738,7 @@
       </rPr>
       <t>的大小一样，所有的panel都贴在这个上面</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1752,7 +1757,7 @@
 editButton 触发：新建一个下一个界面；
 MainScene.this.navigationView.push(editorScene)把新建出来的scene对象，push在栈顶</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1777,15 +1782,15 @@
       </rPr>
       <t>.this</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>感觉像是把一个链表包装成了一个栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>push，add函数没有太懂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1801,7 +1806,7 @@
       </rPr>
       <t>和其他地方调用的语法不同；因为是匿名内部类？</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1840,7 +1845,7 @@
 itemEditButton触发，各种触发的顺序，在哪里设置delegate，进入新panel之后什么时候把操作转回来，然后转回来做什么操作，各种各个类之间的转，要搞清楚
 四组button基本是一样的</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1856,7 +1861,7 @@
       </rPr>
       <t>触发：拿到textField里面的内容作为名字，new一个对象（有参构造）；new一个ItemEditingScene对象；把equipment给set到scene里面去；push新Scene对象；</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1872,11 +1877,11 @@
       </rPr>
       <t>怎么知道哪一个对象？这里的数据结构有点乱</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>为什么validate前，save的enable是false还能显出来？怎么做到的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1912,29 +1917,29 @@
       <t>的属性做非空检验，如为空，则赋默认值，应该是为了处理d2V()使用的
 button触发：set equipment对象属性，因为validate要调用，别忘了设置对象属性；set label text是不是调用d2V更好？</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>类似ItemCreationScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>类似ItemCreationScene；
 多一些button和参数；build 2 需要大改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>两个panel，有selectorPanel就要setDelegate，在新建这个panel同时先set；add时调动右侧显示Panel的d2V()
 button的触发都是在Panel类里设定的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>这一页比较复杂，有selector需要设置delegator的，也有需要作为observer的，具体过程见sheet2角色扮演案例；自己写的，还比较清楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>只有一个静态方法，是把value(int)拼接成带符号的String用，负数不管，只是在正数前面加一个+号；在EquipmentView里用到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1946,147 +1951,192 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>修改</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>InventoryPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新建类，代码由原有的 BackpanelPanel 和 PlayerPanel（武器槽）部分代码合并而来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>需要拆分，把player属性部分 和 武器槽部分分开；player属性需要添加class、Party两个显示空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>需要更改
 1.添加3个button设置class
 2.各panel重新布局
 3.注意delegate和observer关系处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>更改：
 1.添加属性 class， Party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>questions</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>责任人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>questions</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（qk）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改：设置 width，height 界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>更改：
 1.更改为equipmentPanel作为Chest ViewInside使用
 2.代码部分拷贝入 InventoryPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改：
 1.把原来的nameLabel改成viewInsideButton；
 2.viewInsideButton触发 equipmentsPanel和 equipmentSelectorPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.添加设置 Party 的按钮，触发对player的属性设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合controlView的修改，做delegate的代码修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadyScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+根据新图做layout，并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+根据新图做layout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayingControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayingControlView
+2.button触发新panel显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置 width，height 属性，并更改涉及的数组循环代码
+2.移动，是设置数组value的新值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄理</t>
+    <rPh sb="0" eb="1">
+      <t>zhen li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏琦</t>
+    <rPh sb="0" eb="1">
+      <t>xia qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改：
 1.设置为多个equipments的数据结构；
 2.和新的EquipmentPanel设置为观察者模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1.添加设置 Party 的按钮，触发对player的属性设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合controlView的修改，做delegate的代码修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadyScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建类：
-根据新图做layout，并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建类：
-根据新图做layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayingControlView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建：
-1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayingControlView
-2.button触发新panel显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1.设置 width，height 属性，并更改涉及的数组循环代码
-2.移动，是设置数组value的新值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐锴</t>
+    <rPh sb="0" eb="1">
+      <t>qi kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
+    <rPh sb="0" eb="1">
+      <t>chen si yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张广壁</t>
+    <rPh sb="0" eb="1">
+      <t>zhang guang bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2162,13 +2212,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -2199,25 +2242,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2225,11 +2268,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2238,7 +2281,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2246,17 +2289,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2266,7 +2309,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2274,12 +2317,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2288,18 +2331,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2307,54 +2350,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,6 +2434,10 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2451,12 +2498,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2486,12 +2533,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2697,28 +2744,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
     <col min="6" max="6" width="29.375" style="11" customWidth="1"/>
     <col min="7" max="7" width="53.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="34.625" style="11" customWidth="1"/>
     <col min="9" max="9" width="34.875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -2741,16 +2788,16 @@
         <v>88</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="94.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2766,8 +2813,9 @@
         <v>119</v>
       </c>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="78.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2788,8 +2836,9 @@
         <v>120</v>
       </c>
       <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="57">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2809,10 +2858,13 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="78.75" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="78.75">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2826,8 +2878,9 @@
         <v>108</v>
       </c>
       <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2844,8 +2897,9 @@
         <v>109</v>
       </c>
       <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" ht="94.5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2861,8 +2915,9 @@
         <v>121</v>
       </c>
       <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2879,8 +2934,9 @@
         <v>109</v>
       </c>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="220.5" x14ac:dyDescent="0.15">
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" ht="220.5">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2899,10 +2955,13 @@
         <v>104</v>
       </c>
       <c r="I9" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2919,8 +2978,9 @@
         <v>110</v>
       </c>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="216.75" x14ac:dyDescent="0.15">
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="216.75">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2942,8 +3002,11 @@
       <c r="I11" s="29" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="J11" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="78.75">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2961,8 +3024,9 @@
       <c r="H12" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2974,8 +3038,9 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="257.25" x14ac:dyDescent="0.15">
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" ht="257.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2991,8 +3056,9 @@
       <c r="H14" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="126" x14ac:dyDescent="0.15">
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" ht="126">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3010,8 +3076,9 @@
       <c r="H15" s="17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -3025,8 +3092,9 @@
         <v>113</v>
       </c>
       <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="141.75" x14ac:dyDescent="0.15">
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="141.75">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -3042,8 +3110,9 @@
       <c r="H17" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3057,8 +3126,9 @@
         <v>113</v>
       </c>
       <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3072,8 +3142,9 @@
         <v>113</v>
       </c>
       <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="71.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3093,10 +3164,13 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="31.5">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -3115,8 +3189,9 @@
         <v>163</v>
       </c>
       <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.15">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="63">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -3133,8 +3208,9 @@
         <v>126</v>
       </c>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.5">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -3151,8 +3227,9 @@
         <v>127</v>
       </c>
       <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.5">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -3169,8 +3246,9 @@
         <v>114</v>
       </c>
       <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3187,8 +3265,9 @@
         <v>115</v>
       </c>
       <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="126">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3208,15 +3287,18 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="72">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" s="8"/>
       <c r="E27" s="10"/>
@@ -3224,10 +3306,13 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="78.75" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="78.75">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -3249,10 +3334,13 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="110.25" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="110.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -3268,8 +3356,9 @@
         <v>118</v>
       </c>
       <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="164.25" x14ac:dyDescent="0.15">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="164.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -3288,8 +3377,9 @@
         <v>130</v>
       </c>
       <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -3305,8 +3395,9 @@
         <v>179</v>
       </c>
       <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="31.5">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -3325,8 +3416,9 @@
         <v>177</v>
       </c>
       <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="29.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -3341,8 +3433,11 @@
       <c r="I33" s="29" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="74.25" x14ac:dyDescent="0.15">
+      <c r="J33" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="74.25">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -3361,8 +3456,9 @@
       <c r="H34" s="18" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -3378,8 +3474,9 @@
         <v>179</v>
       </c>
       <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -3396,8 +3493,9 @@
         <v>177</v>
       </c>
       <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.5">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -3414,8 +3512,9 @@
         <v>164</v>
       </c>
       <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -3431,8 +3530,9 @@
         <v>179</v>
       </c>
       <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="60">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -3453,8 +3553,11 @@
       <c r="I39" s="29" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J39" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -3473,8 +3576,9 @@
         <v>177</v>
       </c>
       <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -3491,8 +3595,9 @@
         <v>198</v>
       </c>
       <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="42.75">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -3511,8 +3616,9 @@
         <v>200</v>
       </c>
       <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.15">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="120">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -3533,8 +3639,9 @@
       <c r="H43" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="44.25" x14ac:dyDescent="0.15">
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="44.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3551,8 +3658,9 @@
         <v>194</v>
       </c>
       <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" ht="72.75" x14ac:dyDescent="0.15">
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="72.75">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -3571,8 +3679,9 @@
       <c r="H45" s="10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="74.25" x14ac:dyDescent="0.15">
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="74.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3700,9 @@
       <c r="H46" s="10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.5">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -3610,10 +3720,13 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="47.25" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="47.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -3631,10 +3744,13 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="J48" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3651,8 +3767,9 @@
         <v>198</v>
       </c>
       <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="57">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -3674,13 +3791,16 @@
       <c r="I50" s="30" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="J50" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.5">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C51" s="8"/>
       <c r="E51" s="10"/>
@@ -3688,15 +3808,18 @@
       <c r="G51" s="18"/>
       <c r="H51" s="10"/>
       <c r="I51" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="J51" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28.5">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C52" s="8"/>
       <c r="E52" s="10"/>
@@ -3704,10 +3827,13 @@
       <c r="G52" s="18"/>
       <c r="H52" s="10"/>
       <c r="I52" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="44.25" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+      <c r="J52" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="44.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3726,8 +3852,9 @@
       <c r="H53" s="18" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" ht="28.5">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -3744,8 +3871,9 @@
         <v>185</v>
       </c>
       <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" ht="71.25">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -3764,8 +3892,9 @@
         <v>184</v>
       </c>
       <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -3780,8 +3909,9 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -3812,8 +3943,9 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -3828,8 +3960,9 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,8 +3981,9 @@
       <c r="H60" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" ht="42.75">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -3863,8 +3997,9 @@
         <v>202</v>
       </c>
       <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" ht="31.5">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3883,8 +4018,9 @@
         <v>166</v>
       </c>
       <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" ht="30">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -3903,8 +4039,9 @@
         <v>187</v>
       </c>
       <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
@@ -3916,50 +4053,86 @@
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:9" customFormat="1">
       <c r="A65" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="1:9" customFormat="1">
       <c r="A66" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="29"/>
+    </row>
+    <row r="67" spans="1:9" customFormat="1">
       <c r="A67" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" spans="1:9" customFormat="1">
       <c r="A68" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="29"/>
+    </row>
+    <row r="69" spans="1:9" customFormat="1">
       <c r="A69" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B69" t="s">
         <v>174</v>
       </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J69"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3973,29 +4146,29 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="25" style="9" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="7" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15" thickBot="1"/>
+    <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
         <v>136</v>
       </c>
@@ -4015,7 +4188,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="22" t="s">
         <v>142</v>
@@ -4027,7 +4200,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="11"/>
       <c r="B7" s="22" t="s">
         <v>146</v>
@@ -4039,7 +4212,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4049,7 +4222,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
@@ -4061,7 +4234,7 @@
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -4073,7 +4246,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="28.5">
       <c r="A11" s="11"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -4085,7 +4258,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="28.5">
       <c r="A12" s="11"/>
       <c r="B12" s="22" t="s">
         <v>147</v>
@@ -4097,7 +4270,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="11"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -4107,7 +4280,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
@@ -4118,7 +4291,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="28.5">
       <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
         <v>152</v>
@@ -4129,7 +4302,7 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="22" t="s">
         <v>155</v>
       </c>
@@ -4140,7 +4313,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="28.5">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="25"/>
@@ -4149,7 +4322,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" ht="28.5">
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
@@ -4158,7 +4331,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" ht="28.5">
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
         <v>159</v>
@@ -4167,7 +4340,7 @@
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" ht="28.5">
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
         <v>160</v>
@@ -4176,7 +4349,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="29.25" thickBot="1">
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4185,77 +4358,77 @@
       </c>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -4263,7 +4436,7 @@
       <c r="F32" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="235">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2111,6 +2111,43 @@
     <rPh sb="0" eb="1">
       <t>zhang guang bi</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？还得看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分四层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明的，玻璃板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.改成 宽高不同的，配合整个gameMap做修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2745,10 +2782,10 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3911,7 +3948,7 @@
       <c r="H56" s="10"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="42.75">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -3924,9 +3961,16 @@
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="H57" s="10"/>
-      <c r="J57"/>
+      <c r="I57" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
@@ -3941,7 +3985,9 @@
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="18" t="s">
+        <v>232</v>
+      </c>
       <c r="H58" s="10"/>
       <c r="J58"/>
     </row>
@@ -3958,8 +4004,12 @@
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>230</v>
+      </c>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10">

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="240">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2114,40 +2114,96 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>draw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图片的</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？还得看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分四层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明的，玻璃板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>更改：
 1.改成 宽高不同的，配合整个gameMap做修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陈思羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全和gameMap对应的一个二维数组，及其对应的增删改查操作函数，只是model存的时候Cell，这里存的View</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.配合整个gameMap尺寸做修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明的，玻璃板；其实感觉就是一个透明的小单位，如果有一个透明的png文件，和ImageView是一样的概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片的；这也是创建存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数组里的value的小单位</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavigationView navigationView = new NavigationView();
+new Window(navigationView);
+navigationView.push(new MainScene());</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分四层；分别对数组内容进行赋值；所有的mouseAction触发加在event层
++ interface Delegate 内部类接口，在MapEditingScene被实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要写成内部类接口，而不是大的delegate接口呢？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>+ gameMapViewSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在实现接口的方法里，实际上传参location没有用到，在refreshControlView()方法里又get了一次selectedLocation，which是mapViewLayer的一个属性，也是在调delegate方法之前事件响应的时候刚刚赋值进去的；</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最复杂的一个类；
+各种setDelegate，还有controlView在new出来之后，set属性MapEditingScene，都涉及数据在各个类之间的流动，很重要！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2779,13 +2835,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2834,7 +2891,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="94.5">
+    <row r="2" spans="1:10" ht="94.5" hidden="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2909,7 @@
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="78.75">
+    <row r="3" spans="1:10" ht="78.75" hidden="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2958,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="78.75">
+    <row r="5" spans="1:10" ht="78.75" hidden="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +2974,7 @@
       <c r="H5" s="10"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +2993,7 @@
       <c r="H6" s="10"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" ht="94.5">
+    <row r="7" spans="1:10" ht="94.5" hidden="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2954,7 +3011,7 @@
       <c r="H7" s="10"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2998,7 +3055,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3100,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="78.75">
+    <row r="12" spans="1:10" ht="78.75" hidden="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3120,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3134,7 @@
       <c r="H13" s="10"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="257.25">
+    <row r="14" spans="1:10" ht="257.25" hidden="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3095,7 +3152,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="126">
+    <row r="15" spans="1:10" ht="126" hidden="1">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3172,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -3131,7 +3188,7 @@
       <c r="H16" s="10"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="141.75">
+    <row r="17" spans="1:10" ht="141.75" hidden="1">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -3149,7 +3206,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3165,7 +3222,7 @@
       <c r="H18" s="10"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3207,7 +3264,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31.5">
+    <row r="21" spans="1:10" ht="31.5" hidden="1">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -3228,7 +3285,7 @@
       <c r="H21" s="10"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="63">
+    <row r="22" spans="1:10" ht="63" hidden="1">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -3247,7 +3304,7 @@
       <c r="H22" s="10"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="31.5">
+    <row r="23" spans="1:10" ht="31.5" hidden="1">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -3266,7 +3323,7 @@
       <c r="H23" s="10"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="31.5">
+    <row r="24" spans="1:10" ht="31.5" hidden="1">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -3285,7 +3342,7 @@
       <c r="H24" s="10"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="31.5">
+    <row r="25" spans="1:10" ht="31.5" hidden="1">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3377,7 +3434,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="110.25">
+    <row r="29" spans="1:10" ht="110.25" hidden="1">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -3395,7 +3452,7 @@
       <c r="H29" s="10"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="164.25">
+    <row r="30" spans="1:10" ht="164.25" hidden="1">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -3416,7 +3473,7 @@
       <c r="H30" s="10"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -3434,7 +3491,7 @@
       <c r="H31" s="10"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="31.5">
+    <row r="32" spans="1:10" ht="31.5" hidden="1">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -3474,7 +3531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="74.25">
+    <row r="34" spans="1:10" ht="74.25" hidden="1">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -3495,7 +3552,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -3513,7 +3570,7 @@
       <c r="H35" s="10"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -3532,7 +3589,7 @@
       <c r="H36" s="10"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="28.5">
+    <row r="37" spans="1:10" ht="28.5" hidden="1">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -3551,7 +3608,7 @@
       <c r="H37" s="10"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -3594,7 +3651,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -3615,7 +3672,7 @@
       <c r="H40" s="10"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -3634,7 +3691,7 @@
       <c r="H41" s="10"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="42.75">
+    <row r="42" spans="1:10" ht="42.75" hidden="1">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -3655,7 +3712,7 @@
       <c r="H42" s="10"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="120">
+    <row r="43" spans="1:10" ht="120" hidden="1">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -3678,7 +3735,7 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="44.25">
+    <row r="44" spans="1:10" ht="44.25" hidden="1">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3697,7 +3754,7 @@
       <c r="H44" s="10"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="72.75">
+    <row r="45" spans="1:10" ht="72.75" hidden="1">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -3718,7 +3775,7 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="74.25">
+    <row r="46" spans="1:10" ht="74.25" hidden="1">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -3763,7 +3820,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="47.25">
+    <row r="48" spans="1:10" ht="101.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -3778,8 +3835,12 @@
         <v>46</v>
       </c>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>238</v>
+      </c>
       <c r="I48" s="29" t="s">
         <v>214</v>
       </c>
@@ -3787,7 +3848,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3870,7 +3931,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="44.25">
+    <row r="53" spans="1:10" ht="44.25" hidden="1">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3891,7 +3952,7 @@
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="28.5">
+    <row r="54" spans="1:10" ht="28.5" hidden="1">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -3910,7 +3971,7 @@
       <c r="H54" s="10"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="71.25">
+    <row r="55" spans="1:10" ht="71.25" hidden="1">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -3931,7 +3992,7 @@
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="28.5">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -3944,11 +4005,18 @@
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="H56" s="10"/>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10" ht="42.75">
+      <c r="I56" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="57">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -3962,17 +4030,19 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="H57" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>237</v>
+      </c>
       <c r="I57" s="29" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="28.5" hidden="1">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -3986,12 +4056,12 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H58" s="10"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="30" hidden="1">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -4005,14 +4075,12 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>230</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="H59" s="18"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4033,7 +4101,7 @@
       </c>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" ht="42.75">
+    <row r="61" spans="1:10" ht="42.75" hidden="1">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,7 +4117,7 @@
       <c r="H61" s="10"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" ht="31.5">
+    <row r="62" spans="1:10" ht="31.5" hidden="1">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4070,7 +4138,7 @@
       <c r="H62" s="10"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" ht="30">
+    <row r="63" spans="1:10" ht="30" hidden="1">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -4091,7 +4159,7 @@
       <c r="H63" s="10"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="63" hidden="1">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
@@ -4101,11 +4169,13 @@
       <c r="F64" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="10"/>
+      <c r="G64" s="10" t="s">
+        <v>235</v>
+      </c>
       <c r="H64" s="10"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1">
+    <row r="65" spans="1:9" customFormat="1" hidden="1">
       <c r="A65" s="1" t="s">
         <v>168</v>
       </c>
@@ -4120,7 +4190,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1">
+    <row r="66" spans="1:9" customFormat="1" hidden="1">
       <c r="A66" s="1" t="s">
         <v>168</v>
       </c>
@@ -4135,7 +4205,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1">
+    <row r="67" spans="1:9" customFormat="1" hidden="1">
       <c r="A67" s="1" t="s">
         <v>168</v>
       </c>
@@ -4150,7 +4220,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1">
+    <row r="68" spans="1:9" customFormat="1" hidden="1">
       <c r="A68" s="1" t="s">
         <v>168</v>
       </c>
@@ -4165,7 +4235,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1">
+    <row r="69" spans="1:9" customFormat="1" hidden="1">
       <c r="A69" s="1" t="s">
         <v>173</v>
       </c>
@@ -4181,7 +4251,13 @@
       <c r="I69" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J69"/>
+  <autoFilter ref="A1:J69">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -2311,7 +2311,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2321,6 +2321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,7 +2449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2527,10 +2533,14 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2839,10 +2849,10 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2856,7 +2866,7 @@
     <col min="7" max="7" width="53.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="34.625" style="11" customWidth="1"/>
     <col min="9" max="9" width="34.875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25">
@@ -2932,7 +2942,7 @@
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="57">
+    <row r="4" spans="1:10" ht="57" hidden="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3040,7 @@
       <c r="H8" s="10"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" ht="220.5">
+    <row r="9" spans="1:10" ht="220.5" hidden="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3106,7 @@
       <c r="I11" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="32" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3260,7 +3270,7 @@
       <c r="I20" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="33" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3361,7 +3371,7 @@
       <c r="H25" s="10"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="126">
+    <row r="26" spans="1:10" ht="126" hidden="1">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3383,11 +3393,11 @@
       <c r="I26" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="31" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="72">
+    <row r="27" spans="1:10" ht="72" hidden="1">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3402,11 +3412,11 @@
       <c r="I27" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="31" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="78.75">
+    <row r="28" spans="1:10" ht="78.75" hidden="1">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -3430,7 +3440,7 @@
       <c r="I28" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="31" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3527,7 +3537,7 @@
       <c r="I33" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="31" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3647,7 +3657,7 @@
       <c r="I39" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="32" t="s">
+      <c r="J39" s="34" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3796,7 +3806,7 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="28.5">
+    <row r="47" spans="1:10" ht="28.5" hidden="1">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -3816,11 +3826,11 @@
       <c r="I47" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J47" s="31" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="101.25">
+    <row r="48" spans="1:10" ht="101.25" hidden="1">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -3844,7 +3854,7 @@
       <c r="I48" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="J48" s="32" t="s">
+      <c r="J48" s="31" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3889,11 +3899,11 @@
       <c r="I50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J50" s="32" t="s">
+      <c r="J50" s="31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.5">
+    <row r="51" spans="1:10" ht="28.5" hidden="1">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -3908,11 +3918,11 @@
       <c r="I51" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="J51" s="32" t="s">
+      <c r="J51" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28.5">
+    <row r="52" spans="1:10" ht="28.5" hidden="1">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3927,7 +3937,7 @@
       <c r="I52" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="J52" s="32" t="s">
+      <c r="J52" s="31" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3992,7 +4002,7 @@
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="28.5">
+    <row r="56" spans="1:10" ht="28.5" hidden="1">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -4016,7 +4026,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="57">
+    <row r="57" spans="1:10" ht="57" hidden="1">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,6 +4266,11 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="齐锴"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -3537,7 +3537,7 @@
       <c r="I33" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="34" t="s">
         <v>225</v>
       </c>
     </row>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -2029,21 +2029,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新建类：
-根据新图做layout，并</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayScene</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新建类：
 根据新图做layout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayingControlView</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2204,6 +2195,15 @@
   <si>
     <t>最复杂的一个类；
 各种setDelegate，还有controlView在new出来之后，set属性MapEditingScene，都涉及数据在各个类之间的流动，很重要！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayingControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+根据新图做layout，并</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2849,10 +2849,10 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2898,7 +2898,7 @@
         <v>203</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="94.5" hidden="1">
@@ -2962,10 +2962,10 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="10" t="s">
         <v>222</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="78.75" hidden="1">
@@ -3059,10 +3059,10 @@
         <v>104</v>
       </c>
       <c r="I9" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1">
@@ -3084,7 +3084,7 @@
       <c r="H10" s="10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="216.75">
+    <row r="11" spans="1:10" ht="216.75" hidden="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>208</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" hidden="1">
@@ -3248,7 +3248,7 @@
       <c r="H19" s="10"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="71.25">
+    <row r="20" spans="1:10" ht="71.25" hidden="1">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>212</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" hidden="1">
@@ -3393,8 +3393,8 @@
       <c r="I26" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="31" t="s">
-        <v>226</v>
+      <c r="J26" s="34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="72" hidden="1">
@@ -3402,7 +3402,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C27" s="8"/>
       <c r="E27" s="10"/>
@@ -3410,10 +3410,10 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="78.75" hidden="1">
@@ -3440,8 +3440,8 @@
       <c r="I28" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="31" t="s">
-        <v>223</v>
+      <c r="J28" s="34" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="110.25" hidden="1">
@@ -3522,7 +3522,7 @@
       <c r="H32" s="10"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="29.25">
+    <row r="33" spans="1:10" ht="29.25" hidden="1">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>205</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="74.25" hidden="1">
@@ -3636,7 +3636,7 @@
       <c r="H38" s="10"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="60">
+    <row r="39" spans="1:10" ht="60" hidden="1">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>206</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1">
@@ -3826,8 +3826,8 @@
       <c r="I47" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="J47" s="31" t="s">
-        <v>226</v>
+      <c r="J47" s="34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="101.25" hidden="1">
@@ -3846,16 +3846,16 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>214</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1">
@@ -3877,7 +3877,7 @@
       <c r="H49" s="10"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="57">
+    <row r="50" spans="1:10" ht="57" hidden="1">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,11 +3899,11 @@
       <c r="I50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J50" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="28.5" hidden="1">
+      <c r="J50" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.5">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -3916,18 +3916,18 @@
       <c r="G51" s="18"/>
       <c r="H51" s="10"/>
       <c r="I51" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="28.5" hidden="1">
+        <v>239</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28.5">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="8"/>
       <c r="E52" s="10"/>
@@ -3935,10 +3935,10 @@
       <c r="G52" s="18"/>
       <c r="H52" s="10"/>
       <c r="I52" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J52" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="44.25" hidden="1">
@@ -4016,14 +4016,14 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="57" hidden="1">
@@ -4040,16 +4040,16 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.5" hidden="1">
@@ -4066,7 +4066,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H58" s="10"/>
       <c r="J58"/>
@@ -4085,7 +4085,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H59" s="18"/>
       <c r="J59"/>
@@ -4180,7 +4180,7 @@
         <v>82</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H64" s="10"/>
       <c r="J64"/>
@@ -4269,7 +4269,7 @@
     </filterColumn>
     <filterColumn colId="9">
       <filters>
-        <filter val="齐锴"/>
+        <filter val="张广壁"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -2449,7 +2449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2541,6 +2541,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2849,10 +2850,10 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2942,7 +2943,7 @@
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="57" hidden="1">
+    <row r="4" spans="1:10" ht="57">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="H8" s="10"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" ht="220.5" hidden="1">
+    <row r="9" spans="1:10" ht="220.5">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3084,7 +3085,7 @@
       <c r="H10" s="10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="216.75" hidden="1">
+    <row r="11" spans="1:10" ht="216.75">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +3249,7 @@
       <c r="H19" s="10"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="71.25" hidden="1">
+    <row r="20" spans="1:10" ht="71.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3371,7 +3372,7 @@
       <c r="H25" s="10"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="126" hidden="1">
+    <row r="26" spans="1:10" ht="126">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="72" hidden="1">
+    <row r="27" spans="1:10" ht="72">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="78.75" hidden="1">
+    <row r="28" spans="1:10" ht="78.75">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -3522,7 +3523,7 @@
       <c r="H32" s="10"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="29.25" hidden="1">
+    <row r="33" spans="1:10" ht="29.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -3636,7 +3637,7 @@
       <c r="H38" s="10"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="60" hidden="1">
+    <row r="39" spans="1:10" ht="60">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -3806,7 +3807,7 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="28.5" hidden="1">
+    <row r="47" spans="1:10" ht="28.5">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="101.25" hidden="1">
+    <row r="48" spans="1:10" ht="101.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -3877,7 +3878,7 @@
       <c r="H49" s="10"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="57" hidden="1">
+    <row r="50" spans="1:10" ht="57">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -3937,7 +3938,7 @@
       <c r="I52" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="34" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4002,7 +4003,7 @@
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="28.5" hidden="1">
+    <row r="56" spans="1:10" ht="28.5">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -4022,11 +4023,11 @@
       <c r="I56" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="35" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="57" hidden="1">
+    <row r="57" spans="1:10" ht="57">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -4048,7 +4049,7 @@
       <c r="I57" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="35" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4266,11 +4267,6 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="张广壁"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20055"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20055" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="build1-2" sheetId="4" r:id="rId1"/>
+    <sheet name="build2-3" sheetId="1" r:id="rId2"/>
+    <sheet name="others" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'build1-2'!$A$1:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'build2-3'!$A$1:$J$73</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="482">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Simulation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>persistence</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -85,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EquipmentDelegate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EquipmentSelectorPanel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,14 +182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>interface</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Panel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -208,10 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GameMapView.Delegate, PlayerDelegate, EquipmentDelegate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>abstract</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,10 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BackpackPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CampaignSelectorPanel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,10 +303,6 @@
   </si>
   <si>
     <t>package</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>categories</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -597,14 +571,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MapDelegate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipmentDelegate, PlayerDelegate, MapDelegate, CampaignDelegate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>角色扮演非常好</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1479,14 +1445,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CampaignDelegate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原理类似CampaignDelegate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>img19</t>
     </r>
@@ -1963,11 +1921,1761 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>questions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（qk）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.添加设置 Party 的按钮，触发对player的属性设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadyScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄理</t>
+    <rPh sb="0" eb="1">
+      <t>zhen li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏琦</t>
+    <rPh sb="0" eb="1">
+      <t>xia qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置为多个equipments的数据结构；
+2.和新的EquipmentPanel设置为观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐锴</t>
+    <rPh sb="0" eb="1">
+      <t>qi kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
+    <rPh sb="0" eb="1">
+      <t>chen si yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张广壁</t>
+    <rPh sb="0" eb="1">
+      <t>zhang guang bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.改成 宽高不同的，配合整个gameMap做修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全和gameMap对应的一个二维数组，及其对应的增删改查操作函数，只是model存的时候Cell，这里存的View</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明的，玻璃板；其实感觉就是一个透明的小单位，如果有一个透明的png文件，和ImageView是一样的概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片的；这也是创建存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数组里的value的小单位</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavigationView navigationView = new NavigationView();
+new Window(navigationView);
+navigationView.push(new MainScene());</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要写成内部类接口，而不是大的delegate接口呢？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>+ gameMapViewSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在实现接口的方法里，实际上传参location没有用到，在refreshControlView()方法里又get了一次selectedLocation，which是mapViewLayer的一个属性，也是在调delegate方法之前事件响应的时候刚刚赋值进去的；</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最复杂的一个类；
+各种setDelegate，还有controlView在new出来之后，set属性MapEditingScene，都涉及数据在各个类之间的流动，很重要！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayingControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BullyBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NimbleBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img15右侧长条
+viewAttributesButton触发：mapEditingScene.hideAttributePanel()/mapEditingScene.showAttributePanel(player)
+viewBackpackButton触发：mapEditingScene.hideBackpackPanel()/mapEditingScene.showBackpackPanel(player)
+removeButton触发：mapEditingScene.destroy()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extends</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>implements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>methods &amp; notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>questions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（qk）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">build 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Campaign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- String name
+- List&lt;String&gt; mapNames
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静态常量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *2 validate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的返回值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Campaign就是一个地图名字的List；
+name作为ID；
+查：get整个List，get某个index下的mapName；
+增：add(String)
+删：removeMapName(int)
+validate()方法，只看List是否为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># Point location
+# String imageName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父类；
+继承Obserable，所有子类也继承；
+两个属性和 getter setter
+各子类在构造方法中，对imageName赋值，给出对应图片png图片名字；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Equipment equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是默认chest中只有一个equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置为多个equipments的数据结构；
+2.和新的EquipmentPanel设置为观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个筛子点数产生静态函数
++ static int rool(int face)
++ static int rool(int face, int modifier)
++ static int rool(int times, int face, int modifier)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entrance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在构造函数中做图片指定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- String name
+- String type
+- String enhancedAttribute
+- int enhancedValue
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静态常量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ boolean validate() 对type和enhancedAttribute的组合进行验证；对enhancedValue进行验证；
+@override toString()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- String name
+- int size
+- Cell[][] cells
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静态常量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * 6 validate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的返回值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增：+ addCell(Cell cell, Point location) 把cell放入数组的location位置
+删：+ removeCell(Point location)
+查：+ Cell getCell(Point location) get到location点的cell； + boolean hasCell(Point location) 查询在location点上是否有cell
+改：+ moveCell(Point startPoint, Point endPoint) cell的移动
++ List&lt;Entrance&gt; getEntrances()找到所有的entrance
++ List&lt;Exit&gt; getExits() 找到所有exits
++ String validate() 判断出入口数量是不是1；判断连通性？
+- boolean inMap(Point location)在判断连通性里调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>199行开始的测试连通性没有看懂；这个是赵哲写的，不用太看懂了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置 width，height 属性，并更改涉及的数组循环代码
+2.移动，是设置数组value的新值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall，只在构造函数中做图片指定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静态常量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * 6 abilityScores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的map键名使用
++ 静态常量 * 3 attribute名称
++ 静态常量 * 5 定义了观察者模式中的传参
+- Map&lt;String, Integer&gt; abilityScores
+- List&lt;Equipment&gt; backpack
+- Map&lt;String, Equipment&gt; equipments （这里的键名使用Equipment类里的type/位置常量）
+- int level
+- String name
+- int hp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种公式的实现方法；
+三个attribute没有属性只有getter
+默认是装备先进入backpack，然后再穿在身上
+对backpack捡扔的函数；
+对身上穿脱装备的函数；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.添加属性 class， Party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- int x
+- int y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置坐标
++ static LinkedList&lt;Point&gt; directions 这个函数给出了上右下左四个方向的piont得出一个LinkedList
++ Point add(Point delta)用于移动时的新坐标产生
+@override toString(), equals(), hashCode()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashCode()?
++ Point add(Point delta)注释写的时add poitn，我觉得是用于移动的。。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>persistence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampaignFileManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>+ static File folderPath()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">路径
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ static File path(String name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传参是对象名称，返回一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的完整路径，拼接字符串
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ static Campaign read(String name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">根据一个对象名字把对象恢复出来；对象名字-&gt;路径；用路径找到文件用apache把文件content提取出来-活体化；content用Gson恢复成响应类型的对象-反序列化；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ static void save(Campaign campaign)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">把对象存成文件；传参对象getName形成路径；传参对象用Gson变成content-序列化；content用apache存入晚间内容；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ static List&lt;String&gt; allNames()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>capaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹下所有对象文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来，并把所有对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">形式返回
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ static String filePathToName(String filePath)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅助函数，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串分割截取文件名，之后变成对象名</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第100行，为什么从index 0 开始截取？filePath里面是有路径的吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>persistence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonSerializer&lt;Cell&gt;, JsonDeserializer&lt;Cell&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ JsonElement serialize(Cell cell, Type type, JsonSerializationContext jsonSerializationContext)把一个cell对象变成一个JsonObject
++ Cell deserialize(JsonElement jsonElement, Type type, JsonDeserializationContext jsonDeserializationContext)把一个JsonObjext恢复成cell对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentFileManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和CampaignFileManager方法一样。。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ static String nameToFileName(String name) 从用户指定的name生成fileName
++ static String fileNameToName(String fileName)
++ static void stringToFile(String content, File file)把apache类库里FileUtils.writeStringToFile(file, content, "UTF-8")方法，用try-catch抱起来，实现把内容放进文件，用UTF-8字符集存储的效果
++ static String fileToString(File file)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ static void stringToFile(String content, File file)干嘛的这个
++ static String fileToString(File file)干嘛的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapFileManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerFileManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和CampaignFileManager方法一样。。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/controlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChestControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Chest chest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img13右侧长条
+button触发：mapEditingScene.destroy()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.把原来的nameLabel改成viewInsideButton；
+2.viewInsideButton触发 equipmentsPanel和 equipmentSelectorPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># MapEditingScene mapEditingScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只是把调用它的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">存进去；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getter &amp; setter</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmptyControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntranceControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img10右侧长条
+button触发：mapEditingScene.destroy()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img11右侧长条
+button触发：mapEditingScene.destroy()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObstacleControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img09右侧长条
+button触发：mapEditingScene.destroy()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Player player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.添加设置 Party 的按钮，触发对player的属性设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/controlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayingControlView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayingControlView
+2.button触发新panel显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackpackPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img06里panel被复用
+在setPlayer里addObserver(this)观察player，接BACKPACK_CHANGE类型update，触发d2V函数
+循环打印backpackView
+equipButton触发：player.equip(equipment)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.更改为equipmentPanel作为Chest ViewInside使用
+2.代码部分拷贝入 InventoryPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampaignDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampaignSelectorPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- CampaignDelegate campaignDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>img19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">左侧框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaignDelegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在本类对象被创建时，在所在scence被赋值（scence把this赋给这个属性）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>searchButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">search()
++ search() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把所有对象名称搜出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>allNames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其中搜最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个，搜出来用名字恢复对象（需要把对象赋给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），之后调用view显示，button添加触发
+button触发：campaignDelegate.campaignSelectorPerformAction(CampaignSelectorPanel.this,campaign)把对象传给大scence做处理</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理类似CampaignDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentSelectorPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- EquipmentDelegate equipmentDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理类似CampaingSelectorPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>新建类，代码由原有的 BackpanelPanel 和 PlayerPanel（武器槽）部分代码合并而来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>MapConnectionPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>img19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">右侧框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapSequencePanel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>循环打印capaign里面的name，button添加触发，最后打印endLabel
+button触发：capaign.removeMapName(index)
+validateButton触发：campaignValidate()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问哲哲，这里把capaignValidate直接放在了button响应里，可以吗？当初怎么个声明周期考虑要放在外面?已备份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSelectorPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>img06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>panel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被复用，左下方
+在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>setPlayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>addObserver(this)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观察</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，接多个类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d2V()
+unequipButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>playrer.unequip(equipment)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>需要拆分，把player属性部分 和 武器槽部分分开；player属性需要添加class、Party两个显示空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSelectorPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- MapDelegate mapDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampaignCreationScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似ItemCreationScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampaignEditingScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个panel，有selectorPanel就要setDelegate，在新建这个panel同时先set；add时调动右侧显示Panel的d2V()
+button的触发都是在Panel类里设定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditorScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentDelegate, PlayerDelegate, MapDelegate, CampaignDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>img02
+backButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EditorScene.this.navigationView.pop();
+itemCreateButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发：新建下一个scene，push
+itemEditButton触发，各种触发的顺序，在哪里设置delegate，进入新panel之后什么时候把操作转回来，然后转回来做什么操作，各种各个类之间的转，要搞清楚
+四组button基本是一样的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>203 navigationView.push(itemEditingScene)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他地方调用的语法不同；因为是匿名内部类？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCreationScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发：拿到textField里面的内容作为名字，new一个对象（有参构造）；new一个ItemEditingScene对象；把equipment给set到scene里面去；push新Scene对象；</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemEditingScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>setEquipment()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的属性做非空检验，如为空，则赋默认值，应该是为了处理d2V()使用的
+button触发：set equipment对象属性，因为validate要调用，别忘了设置对象属性；set label text是不是调用d2V更好？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ItemEditingScene.this.navigationView.popTo(EditorScene.class);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怎么知道哪一个对象？这里的数据结构有点乱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">img01
+playButton </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无action
+editButton 触发：新建一个下一个界面；
+MainScene.this.navigationView.push(editorScene)把新建出来的scene对象，push在栈顶</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MainScene.this.navigationView.push(editorScene);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语法还是不明白，为什么类还可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.this</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapCreationScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：设置 width，height 界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapEditingScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMapView.Delegate, PlayerDelegate, EquipmentDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最复杂的一个类；
+各种setDelegate，还有controlView在new出来之后，set属性MapEditingScene，都涉及数据在各个类之间的流动，很重要！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合controlView的修改，做delegate的代码修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCreationScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerEditingScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentDelegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一页比较复杂，有selector需要设置delegator的，也有需要作为observer的，具体过程见sheet2角色扮演案例；自己写的，还比较清楚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1978,13 +3686,350 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ReadyScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+根据新图做layout，并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+根据新图做layout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父类
+设置了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的大小；title；back&amp;save按钮；contenView大小等</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么validate前，save的enable是false还能显出来？怎么做到的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个可以复用的小单位
+值都是在大panel，setPlayer的时候，在d2V里面整体赋值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个可以复用的小单位
+所有Text和对象实际属性值有关的label需要定义为属性，在initSubview()里只是定义label的大小位置等；
+所有setText()放在dataToView()里
+在setEquipment()里call d2V()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMapLayerView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全和gameMap对应的一个二维数组，及其对应的增删改查操作函数，只是model存的时候Cell，这里存的View</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>更改：
-1.添加属性 class， Party</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>questions</t>
+1.配合整个gameMap尺寸做修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMapView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分四层；分别对数组内容进行赋值；所有的mouseAction触发加在event层
++ interface Delegate 内部类接口，在MapEditingScene被实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要写成内部类接口，而不是大的delegate接口呢？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.改成 宽高不同的，配合整个gameMap做修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明的，玻璃板；其实感觉就是一个透明的小单位，如果有一个透明的png文件，和ImageView是一样的概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片的；这也是创建存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数组里的value的小单位</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavigationView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉像是把一个链表包装成了一个栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push，add函数没有太懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextDisplay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个静态方法，是把value(int)拼接成带符号的String用，负数不管，只是在正数前面加一个+号；在EquipmentView里用到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># NavigationView navigationView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>override</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JPnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的一些方法</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JFrame</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- View contentView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这里大小和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的大小一样，所有的panel都贴在这个上面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psvm，整个项目的启动类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavigationView navigationView = new NavigationView();
+new Window(navigationView);
+navigationView.push(new MainScene());</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/logic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampaignTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapValidatorTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/persistence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class
+</t>
     </r>
     <r>
       <rPr>
@@ -1995,18 +4040,65 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（qk）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：设置 width，height 界面</t>
+      <t>（red：super class
+blue: interface）
+（填充绿色为build2修改，填充蓝色为build2新增）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>build2责任人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>build3责任人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExplorer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChestViewControlView</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>更改：
-1.更改为equipmentPanel作为Chest ViewInside使用
-2.代码部分拷贝入 InventoryPanel</t>
+1.添加属性 class， Party
+2.有关attack()方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄理、齐锴</t>
+    <rPh sb="0" eb="1">
+      <t>qi kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置 width，height 属性，并更改涉及的数组循环代码
+2.移动，是设置数组value的新值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类，builder</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2016,194 +4108,337 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改：
-1.添加设置 Party 的按钮，触发对player的属性设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合controlView的修改，做delegate的代码修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadyScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建类：
-根据新图做layout</t>
+    <r>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程中点选player时，控制player的，显示属性和inventory两个button；</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新建：
 1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayingControlView
-2.button触发新panel显示</t>
+2.button触发新panel显示
+（play过程中点选player时，控制player的，显示属性和inventory两个button；）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程中点选chest时，控制chest的，有viewInside button</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentPanel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改：
-1.设置 width，height 属性，并更改涉及的数组循环代码
-2.移动，是设置数组value的新值</t>
+CampaignDelegate 作为内部类并入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐锴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+EquipmentDelegate作为内部类并入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+MapDelegate 作为内部类并入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+PlayerDelegate 作为内部类并入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+1. 代码由原有的 BackpanelPanel 和 PlayerPanel（武器槽）部分代码合并而来
+2. 添加Delegate内部类，实现两个抽象方法，分别作为enhanced显示和exchange装备使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.原BackpackPanel基础上修改；更改为equipmentPanel作为Chest ViewInside使用
+2.代码部分拷贝入 InventoryPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>建议更名为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ChestPanel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>；</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>甄理</t>
-    <rPh sb="0" eb="1">
-      <t>zhen li</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>夏琦</t>
-    <rPh sb="0" eb="1">
-      <t>xia qi</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改：
-1.设置为多个equipments的数据结构；
-2.和新的EquipmentPanel设置为观察者模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐锴</t>
-    <rPh sb="0" eb="1">
-      <t>qi kai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈思羽</t>
+playButton 动作添加为触发ReadyScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽，甄理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1. 添加 level、type作为创建依据
+2. creatButton添加对level做validate的代码
+3. creatButton触发builder进行player对象创建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.添加3个button设置class
+2.各panel重新布局
+3.注意delegate和observer关系处理
+4.穿卸装备对attribute的影响实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1. 设置 width，height 界面
+2. 对地图尺寸做validate代码内置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1. 配合controlView的修改，做delegate的代码修改
+2. 添加chest的edit功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽，齐锴</t>
     <rPh sb="0" eb="1">
       <t>chen si yu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任人</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张广壁</t>
+    <t>陈思羽、张广壁</t>
     <rPh sb="0" eb="1">
       <t>zhang guang bi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>更改：
-1.改成 宽高不同的，配合整个gameMap做修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈思羽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全和gameMap对应的一个二维数组，及其对应的增删改查操作函数，只是model存的时候Cell，这里存的View</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改：
-1.配合整个gameMap尺寸做修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明的，玻璃板；其实感觉就是一个透明的小单位，如果有一个透明的png文件，和ImageView是一样的概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>draw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图片的；这也是创建存在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Layer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数组里的value的小单位</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NavigationView navigationView = new NavigationView();
-new Window(navigationView);
-navigationView.push(new MainScene());</t>
+    <t>PlayCreationScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentSelectorPanel.Delegate,                                                  PlayerSelectorPanel.Delegate,                                                  MapSelectorPanel.Delegate,                                                  CampaignSelectorPanel.Delegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentSelectorPanel.Delegate, InventoryPanel.Delegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMapView.Delegate, PlayerSelectorPanel.Delegate, EquipmentSelectorPanel.Delegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSelectorPanel.Delegate, CampaignSelectorPanel.Delegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMapView.Delegate, InventoryPanel.Delegate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分四层；分别对数组内容进行赋值；所有的mouseAction触发加在event层
-+ interface Delegate 内部类接口，在MapEditingScene被实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么要写成内部类接口，而不是大的delegate接口呢？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>+ gameMapViewSelect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在实现接口的方法里，实际上传参location没有用到，在refreshControlView()方法里又get了一次selectedLocation，which是mapViewLayer的一个属性，也是在调delegate方法之前事件响应的时候刚刚赋值进去的；</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最复杂的一个类；
-各种setDelegate，还有controlView在new出来之后，set属性MapEditingScene，都涉及数据在各个类之间的流动，很重要！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayingControlView</t>
++ interface Delegate 内部类接口，在MapEditingScene被实现
+有内部类接口作为Delegate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新建类：
-根据新图做layout，并</t>
+1. 根据新图做layout，添加串联代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+1. layout设置
+2. 实现选择player和campaign的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽、齐锴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+1. 根据新图做layout
+2. 实现地图显示
+3. 根据地图上不同选择，显示不同的controlView，并能根据controlView按钮激活panel
+3. 上下左右键移动
+4. interactButton动作设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽、张广壁、齐锴</t>
+    <rPh sb="0" eb="1">
+      <t>zhang guang bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+play过程中点选chest时，控制chest的，有viewInside button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+需要拆分，把player属性部分 和 武器槽部分分开；player属性需要添加class、Party两个显示空间；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.配合整个gameMap尺寸做修改，改为宽高不同的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 建议将testItemReflectAbilities()修改为testItemEnhancedAbilities
+2. 建议将testUnexistingEquipmentDrop()修改为testNonExistentEquipmentDrop
+3. testLooting()、testNotLooting()是不是最好在@before里建使用的对象，而不是去存储文件里拿，因为这里单看test是看不出是否合理的，有作弊的可能
+4. testAfterLooting()把play类里面的方法全都加进来了？直接测试player类里面的方法吧？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议将常量改名为“VALIDATION_ERROR_TOO_MANY_ENTRANCES”&amp;"VALIDATION_ERROR_TOO_MANY_EXITS"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 建议testTooMuchEntrance()更名为testTooManyEntrances()
+2. testTooMuchExits()
+3. testConnection()建议改名为testReachable()
+4. testNotConnection()
+5. testPlayerNotDefined()文件里读取？在@before里有map啊？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. testCorrectCampaign()建议改名为testValidatedCampaign
+2. testWrongCampaign()建议改名为testNonValidatedCampaign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 请修改第一个函数的缩进
+2. 29.30行，哪里set的direction？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>build 2 Review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">build 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapFileManagerTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. fileNameToName() 34,是不是应该改成小写的文件名？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestSuite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileManagerTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张广璧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增：
+新增对Play类的测试类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. build2 里面有关 map loading的测试，是不是应该单独拿一个方法出来？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2211,7 +4446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2310,8 +4545,14 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2327,6 +4568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2449,7 +4696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2542,6 +4789,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2849,11 +5118,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2872,115 +5141,115 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="94.5" hidden="1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="78.75" hidden="1">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="57">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="29" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="78.75" hidden="1">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="H5" s="10"/>
       <c r="J5"/>
@@ -2990,23 +5259,23 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="94.5" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -3014,129 +5283,129 @@
       <c r="C7" s="8"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="H7" s="10"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="H8" s="10"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="220.5">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="H10" s="10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" ht="216.75">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="29" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="C13" s="8"/>
       <c r="E13" s="10"/>
@@ -3147,263 +5416,263 @@
     </row>
     <row r="14" spans="1:10" ht="257.25" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="C14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" ht="126" hidden="1">
       <c r="A15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C15" s="8"/>
       <c r="E15" s="10" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="H16" s="10"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="141.75" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="C17" s="8"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="H18" s="10"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="H19" s="10"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="71.25">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="29" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>163</v>
+        <v>290</v>
       </c>
       <c r="H21" s="10"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="63" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H22" s="10"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="H23" s="10"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="31.5" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="H24" s="10"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="H25" s="10"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" ht="126">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="29" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="72">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="C27" s="8"/>
       <c r="E27" s="10"/>
@@ -3411,124 +5680,124 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="29" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="78.75">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>305</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="29" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="110.25" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H29" s="10"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" ht="164.25" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="H30" s="10"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="18" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="H31" s="10"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="H32" s="10"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="29.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="10"/>
@@ -3536,380 +5805,380 @@
       <c r="G33" s="18"/>
       <c r="H33" s="10"/>
       <c r="I33" s="29" t="s">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="74.25" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="H35" s="10"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="H36" s="10"/>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" ht="28.5" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H37" s="10"/>
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="18" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="H38" s="10"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" ht="60">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="16" t="s">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>176</v>
+        <v>333</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="H40" s="10"/>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
-        <v>198</v>
+        <v>337</v>
       </c>
       <c r="H41" s="10"/>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" ht="42.75" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="H42" s="10"/>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" ht="120" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>193</v>
+        <v>343</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10" ht="44.25" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="H44" s="10"/>
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10" ht="72.75" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10" ht="74.25" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>189</v>
+        <v>353</v>
       </c>
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10" ht="28.5">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>354</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="18" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="29" t="s">
-        <v>210</v>
+        <v>356</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="101.25">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>46</v>
+        <v>358</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>214</v>
+        <v>360</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
-        <v>198</v>
+        <v>337</v>
       </c>
       <c r="H49" s="10"/>
       <c r="J49"/>
     </row>
     <row r="50" spans="1:10" ht="57">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>362</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="30" t="s">
-        <v>207</v>
+        <v>365</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.5">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="C51" s="8"/>
       <c r="E51" s="10"/>
@@ -3917,18 +6186,18 @@
       <c r="G51" s="18"/>
       <c r="H51" s="10"/>
       <c r="I51" s="30" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.5">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="C52" s="8"/>
       <c r="E52" s="10"/>
@@ -3936,262 +6205,262 @@
       <c r="G52" s="18"/>
       <c r="H52" s="10"/>
       <c r="I52" s="30" t="s">
-        <v>217</v>
+        <v>369</v>
       </c>
       <c r="J52" s="34" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="44.25" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>30</v>
+        <v>370</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>196</v>
+        <v>372</v>
       </c>
       <c r="J53"/>
     </row>
     <row r="54" spans="1:10" ht="28.5" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="H54" s="10"/>
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="71.25" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>184</v>
+        <v>377</v>
       </c>
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10" ht="28.5">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>378</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="18" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="57">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="18" t="s">
-        <v>234</v>
+        <v>384</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>235</v>
+        <v>385</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>227</v>
+        <v>386</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.5" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>387</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="18" t="s">
-        <v>231</v>
+        <v>388</v>
       </c>
       <c r="H58" s="10"/>
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10" ht="30" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>232</v>
+        <v>390</v>
       </c>
       <c r="H59" s="18"/>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>391</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="18" t="s">
-        <v>190</v>
+        <v>392</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>191</v>
+        <v>393</v>
       </c>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10" ht="42.75" hidden="1">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>395</v>
       </c>
       <c r="C61" s="8"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="18" t="s">
-        <v>202</v>
+        <v>396</v>
       </c>
       <c r="H61" s="10"/>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10" ht="31.5" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
-        <v>167</v>
+        <v>398</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>166</v>
+        <v>399</v>
       </c>
       <c r="H62" s="10"/>
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10" ht="30" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>186</v>
+        <v>402</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>187</v>
+        <v>403</v>
       </c>
       <c r="H63" s="10"/>
       <c r="J63"/>
     </row>
     <row r="64" spans="1:10" ht="63" hidden="1">
       <c r="A64" s="5" t="s">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="H64" s="10"/>
       <c r="J64"/>
     </row>
     <row r="65" spans="1:9" customFormat="1" hidden="1">
       <c r="A65" s="1" t="s">
-        <v>168</v>
+        <v>408</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="8"/>
@@ -4203,10 +6472,10 @@
     </row>
     <row r="66" spans="1:9" customFormat="1" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>168</v>
+        <v>408</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>410</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="8"/>
@@ -4218,10 +6487,10 @@
     </row>
     <row r="67" spans="1:9" customFormat="1" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>408</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="8"/>
@@ -4233,10 +6502,10 @@
     </row>
     <row r="68" spans="1:9" customFormat="1" hidden="1">
       <c r="A68" s="1" t="s">
-        <v>168</v>
+        <v>408</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>172</v>
+        <v>412</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="8"/>
@@ -4248,10 +6517,10 @@
     </row>
     <row r="69" spans="1:9" customFormat="1" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="8"/>
@@ -4277,10 +6546,1622 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I57" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="53.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="31" customWidth="1"/>
+    <col min="11" max="12" width="34.875" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="72.75">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="J50" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" s="39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" s="18"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="29.25">
+      <c r="A74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="29.25">
+      <c r="A75" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="J76" s="39"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="J77" s="39"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="J78" s="39"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J73"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4296,42 +8177,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1"/>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="22" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4340,11 +8221,11 @@
     <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="11"/>
       <c r="B7" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
@@ -4354,7 +8235,7 @@
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
@@ -4364,10 +8245,10 @@
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F9" s="24"/>
     </row>
@@ -4376,11 +8257,11 @@
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5">
@@ -4388,21 +8269,21 @@
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.5">
       <c r="A12" s="11"/>
       <c r="B12" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
@@ -4412,7 +8293,7 @@
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
@@ -4421,31 +8302,31 @@
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="28.5">
       <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
@@ -4456,14 +8337,14 @@
       <c r="D17" s="25"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.5">
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
@@ -4471,7 +8352,7 @@
     <row r="19" spans="2:6" ht="28.5">
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -4480,7 +8361,7 @@
     <row r="20" spans="2:6" ht="28.5">
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -4491,7 +8372,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F21" s="28"/>
     </row>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -4075,19 +4075,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>更改：
-1.添加属性 class， Party
-2.有关attack()方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甄理、齐锴</t>
-    <rPh sb="0" eb="1">
-      <t>qi kai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改：
 1.设置 width，height 属性，并更改涉及的数组循环代码
 2.移动，是设置数组value的新值</t>
@@ -4184,36 +4171,6 @@
     <t>更改：
 1.原BackpackPanel基础上修改；更改为equipmentPanel作为Chest ViewInside使用
 2.代码部分拷贝入 InventoryPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>建议更名为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ChestPanel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>；</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4439,6 +4396,53 @@
   </si>
   <si>
     <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>建议更名为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ChestPanel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄理、齐锴、陈思羽</t>
+    <rPh sb="0" eb="1">
+      <t>qi kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改：
+1.添加属性 type, party，相应常量，observer
+2. 添加根据type产生不同abilityScore的方法（122）
+3. 添加inventory管理相关方法（300-341)
+4. 添加interaction相关方法及属性添加(341-)，包括inventoryLevelRefresh(), randomExchange(), attack(), multipleAttacks, lootChest(), lootDeadNPC()
+5. 添加isDead属性及dead()
+6. 添加getImageName()，设置图片使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6549,10 +6553,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -6602,10 +6606,10 @@
         <v>415</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>416</v>
@@ -6711,10 +6715,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="29" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1">
@@ -6796,13 +6800,13 @@
         <v>95</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>199</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1">
@@ -6856,10 +6860,10 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1">
@@ -6875,10 +6879,10 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34.5" customHeight="1">
@@ -6894,10 +6898,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1">
@@ -6916,10 +6920,10 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
@@ -6938,10 +6942,10 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1">
@@ -6960,10 +6964,10 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="34.5" customHeight="1">
@@ -7213,7 +7217,7 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J31" s="39" t="s">
         <v>201</v>
@@ -7233,11 +7237,11 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>202</v>
@@ -7257,11 +7261,11 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J33" s="39" t="s">
         <v>202</v>
@@ -7306,10 +7310,10 @@
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="34.5" customHeight="1">
@@ -7332,10 +7336,10 @@
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="34.5" customHeight="1">
@@ -7356,10 +7360,10 @@
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="34.5" customHeight="1">
@@ -7382,10 +7386,10 @@
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34.5" customHeight="1">
@@ -7428,7 +7432,7 @@
         <v>171</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>201</v>
@@ -7452,7 +7456,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="10"/>
       <c r="I41" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J41" s="39" t="s">
         <v>201</v>
@@ -7463,7 +7467,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
@@ -7480,13 +7484,13 @@
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J42" s="39" t="s">
         <v>199</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="34.5" customHeight="1">
@@ -7530,7 +7534,7 @@
         <v>178</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>219</v>
@@ -7548,7 +7552,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
@@ -7617,10 +7621,10 @@
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="29" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34.5" customHeight="1">
@@ -7635,7 +7639,7 @@
         <v>41</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
@@ -7643,7 +7647,7 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="30" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J49" s="39" t="s">
         <v>201</v>
@@ -7667,7 +7671,7 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>202</v>
@@ -7685,7 +7689,7 @@
         <v>41</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
@@ -7695,10 +7699,10 @@
         <v>211</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34.5" customHeight="1">
@@ -7757,10 +7761,10 @@
       <c r="G54" s="18"/>
       <c r="H54" s="10"/>
       <c r="I54" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J54" s="39" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="34.5" customHeight="1">
@@ -7768,23 +7772,23 @@
         <v>18</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18"/>
       <c r="H55" s="10"/>
       <c r="I55" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J55" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="34.5" customHeight="1">
@@ -7799,16 +7803,16 @@
         <v>41</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="18"/>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34.5" customHeight="1">
@@ -7986,7 +7990,7 @@
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="29" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>205</v>
@@ -8006,7 +8010,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>210</v>
@@ -8052,7 +8056,7 @@
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="29" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="34.5" customHeight="1">
@@ -8064,7 +8068,7 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="34.5" customHeight="1">
@@ -8076,7 +8080,7 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="29" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="34.5" customHeight="1">
@@ -8084,16 +8088,16 @@
         <v>159</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K72" s="29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="34.5" customHeight="1">
@@ -8101,11 +8105,11 @@
         <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="29.25">
@@ -8113,30 +8117,30 @@
         <v>164</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="29.25">
       <c r="A75" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="K75" s="29" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:11">

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="483">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1965,12 +1965,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改：
-1.设置为多个equipments的数据结构；
-2.和新的EquipmentPanel设置为观察者模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>齐锴</t>
     <rPh sb="0" eb="1">
       <t>qi kai</t>
@@ -4075,12 +4069,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改：
-1.设置 width，height 属性，并更改涉及的数组循环代码
-2.移动，是设置数组value的新值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>新建类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4443,6 +4431,21 @@
 4. 添加interaction相关方法及属性添加(341-)，包括inventoryLevelRefresh(), randomExchange(), attack(), multipleAttacks, lootChest(), lootDeadNPC()
 5. 添加isDead属性及dead()
 6. 添加getImageName()，设置图片使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置为多个equipments的数据结构，以及相应 增删改查 方法；
+2.和新的EquipmentPanel设置为观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置 width，height 属性，并更改涉及的数组循环代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候覆盖equals() hashCode() ？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5145,98 +5148,98 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>166</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="94.5" hidden="1">
       <c r="A2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="78.75" hidden="1">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="57">
       <c r="A4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>198</v>
@@ -5244,16 +5247,16 @@
     </row>
     <row r="5" spans="1:10" ht="78.75" hidden="1">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H5" s="10"/>
       <c r="J5"/>
@@ -5263,23 +5266,23 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="94.5" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -5287,53 +5290,53 @@
       <c r="C7" s="8"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="H7" s="10"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H8" s="10"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="220.5">
       <c r="A9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>254</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>199</v>
@@ -5341,29 +5344,29 @@
     </row>
     <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H10" s="10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" ht="216.75">
       <c r="A11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
@@ -5371,45 +5374,45 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="8"/>
       <c r="E13" s="10"/>
@@ -5420,36 +5423,36 @@
     </row>
     <row r="14" spans="1:10" ht="257.25" hidden="1">
       <c r="A14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" ht="126" hidden="1">
       <c r="A15" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="8"/>
       <c r="E15" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>120</v>
@@ -5458,127 +5461,127 @@
     </row>
     <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H16" s="10"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="141.75" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="8"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H18" s="10"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H19" s="10"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="71.25">
       <c r="A20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="H21" s="10"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="63" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -5590,19 +5593,19 @@
     </row>
     <row r="23" spans="1:10" ht="31.5" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H23" s="10"/>
       <c r="J23"/>
@@ -5612,71 +5615,71 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H24" s="10"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H25" s="10"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" ht="126">
       <c r="A26" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="72">
       <c r="A27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C27" s="8"/>
       <c r="E27" s="10"/>
@@ -5684,35 +5687,35 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="78.75">
       <c r="A28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J28" s="34" t="s">
         <v>199</v>
@@ -5720,13 +5723,13 @@
     </row>
     <row r="29" spans="1:10" ht="110.25" hidden="1">
       <c r="A29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="C29" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -5738,39 +5741,39 @@
     </row>
     <row r="30" spans="1:10" ht="164.25" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="H30" s="10"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H31" s="10"/>
       <c r="J31"/>
@@ -5780,28 +5783,28 @@
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="H32" s="10"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="29.25">
       <c r="A33" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="10"/>
@@ -5809,39 +5812,39 @@
       <c r="G33" s="18"/>
       <c r="H33" s="10"/>
       <c r="I33" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="74.25" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>38</v>
@@ -5849,40 +5852,40 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H35" s="10"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H36" s="10"/>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" ht="28.5" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -5894,202 +5897,202 @@
     </row>
     <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H38" s="10"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" ht="60">
       <c r="A39" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="I39" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="I39" s="29" t="s">
-        <v>330</v>
-      </c>
       <c r="J39" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H40" s="10"/>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H41" s="10"/>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" ht="42.75" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H42" s="10"/>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" ht="120" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>343</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>344</v>
       </c>
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10" ht="44.25" hidden="1">
       <c r="A44" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H44" s="10"/>
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10" ht="72.75" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10" ht="74.25" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10" ht="28.5">
       <c r="A47" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6098,91 +6101,91 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="101.25">
       <c r="A48" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>360</v>
-      </c>
       <c r="J48" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H49" s="10"/>
       <c r="J49"/>
     </row>
     <row r="50" spans="1:10" ht="57">
       <c r="A50" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.5">
       <c r="A51" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C51" s="8"/>
       <c r="E51" s="10"/>
@@ -6190,18 +6193,18 @@
       <c r="G51" s="18"/>
       <c r="H51" s="10"/>
       <c r="I51" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.5">
       <c r="A52" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" s="8"/>
       <c r="E52" s="10"/>
@@ -6209,30 +6212,30 @@
       <c r="G52" s="18"/>
       <c r="H52" s="10"/>
       <c r="I52" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J52" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="44.25" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="H53" s="18" t="s">
         <v>371</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>372</v>
       </c>
       <c r="J53"/>
     </row>
@@ -6241,47 +6244,47 @@
         <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H54" s="10"/>
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="71.25" hidden="1">
       <c r="A55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10" ht="28.5">
       <c r="A56" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -6290,22 +6293,22 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="J56" s="35" t="s">
         <v>380</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="57">
       <c r="A57" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -6314,24 +6317,24 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="H57" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="I57" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="I57" s="29" t="s">
-        <v>386</v>
-      </c>
       <c r="J57" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.5" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
@@ -6340,17 +6343,17 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H58" s="10"/>
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10" ht="30" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
@@ -6359,17 +6362,17 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H59" s="18"/>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -6378,25 +6381,25 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="H60" s="18" t="s">
         <v>392</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>393</v>
       </c>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10" ht="42.75" hidden="1">
       <c r="A61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C61" s="8"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H61" s="10"/>
       <c r="J61"/>
@@ -6406,65 +6409,65 @@
         <v>66</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="H62" s="10"/>
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10" ht="30" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>403</v>
       </c>
       <c r="H63" s="10"/>
       <c r="J63"/>
     </row>
     <row r="64" spans="1:10" ht="63" hidden="1">
       <c r="A64" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="F64" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="G64" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>407</v>
       </c>
       <c r="H64" s="10"/>
       <c r="J64"/>
     </row>
     <row r="65" spans="1:9" customFormat="1" hidden="1">
       <c r="A65" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="8"/>
@@ -6476,10 +6479,10 @@
     </row>
     <row r="66" spans="1:9" customFormat="1" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="8"/>
@@ -6491,10 +6494,10 @@
     </row>
     <row r="67" spans="1:9" customFormat="1" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="8"/>
@@ -6506,10 +6509,10 @@
     </row>
     <row r="68" spans="1:9" customFormat="1" hidden="1">
       <c r="A68" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="8"/>
@@ -6521,7 +6524,7 @@
     </row>
     <row r="69" spans="1:9" customFormat="1" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -6553,10 +6556,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -6579,10 +6582,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>30</v>
@@ -6603,16 +6606,16 @@
         <v>192</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>415</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34.5" customHeight="1">
@@ -6715,10 +6718,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1">
@@ -6741,7 +6744,7 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="29" t="s">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>198</v>
@@ -6800,13 +6803,13 @@
         <v>95</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>199</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1">
@@ -6828,6 +6831,9 @@
         <v>93</v>
       </c>
       <c r="J11" s="2"/>
+      <c r="K11" s="29" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -6852,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="8"/>
       <c r="E13" s="10"/>
@@ -6860,10 +6866,10 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1">
@@ -6871,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C14" s="8"/>
       <c r="E14" s="10"/>
@@ -6879,10 +6885,10 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34.5" customHeight="1">
@@ -6890,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C15" s="8"/>
       <c r="E15" s="10"/>
@@ -6898,10 +6904,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1">
@@ -6909,21 +6915,21 @@
         <v>0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
@@ -6931,21 +6937,21 @@
         <v>0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1">
@@ -6953,21 +6959,21 @@
         <v>0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="34.5" customHeight="1">
@@ -7194,7 +7200,7 @@
         <v>195</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="34.5" customHeight="1">
@@ -7217,10 +7223,10 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="34.5" customHeight="1">
@@ -7228,7 +7234,7 @@
         <v>47</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
@@ -7237,14 +7243,14 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="34.5" customHeight="1">
@@ -7252,7 +7258,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
@@ -7261,14 +7267,14 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="34.5" customHeight="1">
@@ -7310,10 +7316,10 @@
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="34.5" customHeight="1">
@@ -7336,10 +7342,10 @@
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="34.5" customHeight="1">
@@ -7360,10 +7366,10 @@
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="34.5" customHeight="1">
@@ -7386,10 +7392,10 @@
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34.5" customHeight="1">
@@ -7432,10 +7438,10 @@
         <v>171</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J40" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="34.5" customHeight="1">
@@ -7456,10 +7462,10 @@
       <c r="G41" s="18"/>
       <c r="H41" s="10"/>
       <c r="I41" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J41" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="34.5" customHeight="1">
@@ -7467,7 +7473,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
@@ -7484,13 +7490,13 @@
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J42" s="39" t="s">
         <v>199</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="34.5" customHeight="1">
@@ -7534,10 +7540,10 @@
         <v>178</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="34.5" customHeight="1">
@@ -7552,7 +7558,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
@@ -7621,10 +7627,10 @@
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34.5" customHeight="1">
@@ -7639,7 +7645,7 @@
         <v>41</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
@@ -7647,10 +7653,10 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="34.5" customHeight="1">
@@ -7671,10 +7677,10 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J50" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34.5" customHeight="1">
@@ -7689,20 +7695,20 @@
         <v>41</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34.5" customHeight="1">
@@ -7761,10 +7767,10 @@
       <c r="G54" s="18"/>
       <c r="H54" s="10"/>
       <c r="I54" s="29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J54" s="39" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="34.5" customHeight="1">
@@ -7772,23 +7778,23 @@
         <v>18</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18"/>
       <c r="H55" s="10"/>
       <c r="I55" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J55" s="39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="34.5" customHeight="1">
@@ -7803,16 +7809,16 @@
         <v>41</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="18"/>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34.5" customHeight="1">
@@ -7948,7 +7954,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H63" s="10"/>
       <c r="J63" s="2"/>
@@ -7967,7 +7973,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H64" s="18"/>
       <c r="J64" s="2"/>
@@ -7986,14 +7992,14 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="34.5" customHeight="1">
@@ -8010,16 +8016,16 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I66" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="34.5" customHeight="1">
@@ -8033,7 +8039,7 @@
         <v>75</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H67" s="10"/>
       <c r="J67" s="2"/>
@@ -8056,7 +8062,7 @@
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="34.5" customHeight="1">
@@ -8068,7 +8074,7 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="34.5" customHeight="1">
@@ -8080,7 +8086,7 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="34.5" customHeight="1">
@@ -8088,16 +8094,16 @@
         <v>159</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K72" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="34.5" customHeight="1">
@@ -8105,11 +8111,11 @@
         <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="29.25">
@@ -8117,30 +8123,30 @@
         <v>164</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="29.25">
       <c r="A75" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B75" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I75" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="29" t="s">
         <v>475</v>
-      </c>
-      <c r="K75" s="29" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:11">

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="build1-2" sheetId="4" r:id="rId1"/>
     <sheet name="build2-3" sheetId="1" r:id="rId2"/>
-    <sheet name="others" sheetId="2" r:id="rId3"/>
+    <sheet name="Builder" sheetId="5" r:id="rId3"/>
+    <sheet name="角色扮演" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'build1-2'!$A$1:$J$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'build2-3'!$A$1:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'build2-3'!$A$1:$J$75</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="503">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1939,6 +1940,12 @@
   </si>
   <si>
     <t>修改：
+1.把原来的nameLabel改成viewInsideButton；
+2.viewInsideButton触发 equipmentsPanel和 equipmentSelectorPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
 1.添加设置 Party 的按钮，触发对player的属性设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4073,16 +4080,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新建类，builder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1.把原来的nameLabel改成viewInsideButton；
-2.viewInsideButton触发 equipmentsPanel和 equipmentSelectorPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>play</t>
     </r>
@@ -4096,13 +4093,6 @@
       </rPr>
       <t>过程中点选player时，控制player的，显示属性和inventory两个button；</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建：
-1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayingControlView
-2.button触发新panel显示
-（play过程中点选player时，控制player的，显示属性和inventory两个button；）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4147,12 +4137,6 @@
   <si>
     <t>修改：
 PlayerDelegate 作为内部类并入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建：
-1. 代码由原有的 BackpanelPanel 和 PlayerPanel（武器槽）部分代码合并而来
-2. 添加Delegate内部类，实现两个抽象方法，分别作为enhanced显示和exchange装备使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4167,11 +4151,6 @@
   </si>
   <si>
     <t>夏琦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-playButton 动作添加为触发ReadyScene</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4187,22 +4166,8 @@
   </si>
   <si>
     <t>修改：
-1.添加3个button设置class
-2.各panel重新布局
-3.注意delegate和observer关系处理
-4.穿卸装备对attribute的影响实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
 1. 设置 width，height 界面
 2. 对地图尺寸做validate代码内置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1. 配合controlView的修改，做delegate的代码修改
-2. 添加chest的edit功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4287,11 +4252,6 @@
   </si>
   <si>
     <t>修改：
-需要拆分，把player属性部分 和 武器槽部分分开；player属性需要添加class、Party两个显示空间；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
 1.配合整个gameMap尺寸做修改，改为宽高不同的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4300,32 +4260,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 建议将testItemReflectAbilities()修改为testItemEnhancedAbilities
-2. 建议将testUnexistingEquipmentDrop()修改为testNonExistentEquipmentDrop
-3. testLooting()、testNotLooting()是不是最好在@before里建使用的对象，而不是去存储文件里拿，因为这里单看test是看不出是否合理的，有作弊的可能
-4. testAfterLooting()把play类里面的方法全都加进来了？直接测试player类里面的方法吧？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建议将常量改名为“VALIDATION_ERROR_TOO_MANY_ENTRANCES”&amp;"VALIDATION_ERROR_TOO_MANY_EXITS"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 建议testTooMuchEntrance()更名为testTooManyEntrances()
-2. testTooMuchExits()
-3. testConnection()建议改名为testReachable()
-4. testNotConnection()
-5. testPlayerNotDefined()文件里读取？在@before里有map啊？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. testCorrectCampaign()建议改名为testValidatedCampaign
 2. testWrongCampaign()建议改名为testNonValidatedCampaign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 请修改第一个函数的缩进
-2. 29.30行，哪里set的direction？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4421,6 +4361,193 @@
     <rPh sb="0" eb="1">
       <t>qi kai</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置为多个equipments的数据结构，以及相应 增删改查 方法；
+2.和新的EquipmentPanel设置为观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置 width，height 属性，并更改涉及的数组循环代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候覆盖equals() hashCode() ？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 建议testTooMuchEntrance()更名为testTooManyEntrances()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. testTooMuchExits()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. testConnection()建议改名为testReachable()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. testNotConnection()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. testPlayerNotDefined()文件里读取？在@before里有map啊？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 建议将testItemReflectAbilities()修改为testItemEnhancedAbilities
+2. 建议将testUnexistingEquipmentDrop()修改为testNonExistentEquipmentDrop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. testLooting()、testNotLooting()是不是最好在@before里建使用的对象，而不是去存储文件里拿，因为这里单看test是看不出是否合理的，有作弊的可能
+4. testAfterLooting()把play类里面的方法全都加进来了？直接测试player类里面的方法吧？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 请修改第一个函数的缩进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 29.30行，哪里set的direction？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类，builder
+Builder 类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类，builder
+ConcteteBuilder 类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类，builder
+ConcteteBuilder 类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4434,18 +4561,290 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>新建类，builder（见sheet Builder）
+Director 类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>properties</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- PlayerBuilder playerBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExplorer explorer = new PlayerExplorer();
+PlayerBuilder tankBuilder= new TankBuilder();
+explorer.setPlayerBuilder(tankBuilder);
+explorer.constructPlayer();
+Player player = explorer.getPlayer;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>methods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- String name
+- int level
+- String type
+- map abilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ setName(String name)
++ setLevel(int level)
++ setPlayerType(String type)
++ generateAbilities(String type)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ getPlayerProduct() : Player
++ createNewPlayer(String name)
++ setLevel(int level)
++ abstract setType()
++ abstract generateAbilities()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Director类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p c PlayerExplorer {}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ setPlayerBuilder(PlayerBuilder playerBuilder)
++ constructPlayer(){
+    playerBuilder.createNewPlayer(String name);
+    playerBuilder.setLevel(int level);
+    playerBuilder.setType();
+    playerBuilder.generateAbilities();}
++ getPlayer() : Player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用类（Drive）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p c PlayCreationScene {}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># Player playerProduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Override
++ setType() { playerProduct.setPlayerType("Tank"); }
++ generateAbilities() { playerProduct.generateAbilities("Tank"); }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抽象Builder类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abstract class PlayerBuilder { }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ class Player{ }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConcreteBuilder类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class TankBuiler extends PlayerBuilder {}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>修改：
-1.设置为多个equipments的数据结构，以及相应 增删改查 方法；
-2.和新的EquipmentPanel设置为观察者模式</t>
+1. 配合controlView的修改，做delegate的代码修改
+2. 添加chest的edit功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改：
-1.设置 width，height 属性，并更改涉及的数组循环代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么时候覆盖equals() hashCode() ？</t>
+1. 添加了右上角的关闭panel的Button
+2. 可以被拖动的功能，用到局部内部类语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayerControlView
+2.button触发新panel显示
+（play过程中点选player时，控制player的，显示属性和inventory两个button；）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+需要拆分，把player属性部分 和 武器槽部分分开；player属性需要添加class、Party两个显示空间；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+1. 代码由原有的 BackpanelPanel 和 PlayerPanel（武器槽）部分代码合并而来
+2. 添加Delegate内部类，实现两个抽象方法，分别作为enhanced显示和exchange装备使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+playButton 动作添加为触发ReadyScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.添加3个button设置class
+2.各panel重新布局
+3.注意delegate和observer关系处理
+4.穿卸装备对attribute的影响实现
+5.level在0-20之间才能set</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4453,7 +4852,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4557,6 +4956,46 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4703,7 +5142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4817,6 +5256,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5148,115 +5611,115 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>166</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="94.5" hidden="1">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="78.75" hidden="1">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="57">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="78.75" hidden="1">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" s="10"/>
       <c r="J5"/>
@@ -5266,23 +5729,23 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="94.5" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -5290,83 +5753,83 @@
       <c r="C7" s="8"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H7" s="10"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H8" s="10"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="220.5">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H10" s="10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" ht="216.75">
       <c r="A11" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
@@ -5374,45 +5837,45 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" s="8"/>
       <c r="E13" s="10"/>
@@ -5423,36 +5886,36 @@
     </row>
     <row r="14" spans="1:10" ht="257.25" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" ht="126" hidden="1">
       <c r="A15" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="8"/>
       <c r="E15" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>120</v>
@@ -5461,127 +5924,127 @@
     </row>
     <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H16" s="10"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="141.75" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" s="8"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H18" s="10"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H19" s="10"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="71.25">
       <c r="A20" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H21" s="10"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="63" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -5593,19 +6056,19 @@
     </row>
     <row r="23" spans="1:10" ht="31.5" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H23" s="10"/>
       <c r="J23"/>
@@ -5615,71 +6078,71 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H24" s="10"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H25" s="10"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" ht="126">
       <c r="A26" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="72">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C27" s="8"/>
       <c r="E27" s="10"/>
@@ -5687,49 +6150,49 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="78.75">
       <c r="A28" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="110.25" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -5741,39 +6204,39 @@
     </row>
     <row r="30" spans="1:10" ht="164.25" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H30" s="10"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H31" s="10"/>
       <c r="J31"/>
@@ -5783,28 +6246,28 @@
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H32" s="10"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="29.25">
       <c r="A33" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="10"/>
@@ -5812,39 +6275,39 @@
       <c r="G33" s="18"/>
       <c r="H33" s="10"/>
       <c r="I33" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="74.25" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>38</v>
@@ -5852,40 +6315,40 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H35" s="10"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H36" s="10"/>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" ht="28.5" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -5897,202 +6360,202 @@
     </row>
     <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H38" s="10"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" ht="60">
       <c r="A39" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H40" s="10"/>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H41" s="10"/>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" ht="42.75" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H42" s="10"/>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" ht="120" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10" ht="44.25" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H44" s="10"/>
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10" ht="72.75" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10" ht="74.25" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10" ht="28.5">
       <c r="A47" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6101,91 +6564,91 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="29" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="101.25">
       <c r="A48" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H49" s="10"/>
       <c r="J49"/>
     </row>
     <row r="50" spans="1:10" ht="57">
       <c r="A50" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.5">
       <c r="A51" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C51" s="8"/>
       <c r="E51" s="10"/>
@@ -6193,18 +6656,18 @@
       <c r="G51" s="18"/>
       <c r="H51" s="10"/>
       <c r="I51" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.5">
       <c r="A52" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C52" s="8"/>
       <c r="E52" s="10"/>
@@ -6212,30 +6675,30 @@
       <c r="G52" s="18"/>
       <c r="H52" s="10"/>
       <c r="I52" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J52" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="44.25" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J53"/>
     </row>
@@ -6244,47 +6707,47 @@
         <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H54" s="10"/>
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="71.25" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10" ht="28.5">
       <c r="A56" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -6293,22 +6756,22 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="57">
       <c r="A57" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -6317,24 +6780,24 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.5" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
@@ -6343,17 +6806,17 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H58" s="10"/>
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10" ht="30" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
@@ -6362,17 +6825,17 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H59" s="18"/>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -6381,25 +6844,25 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10" ht="42.75" hidden="1">
       <c r="A61" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C61" s="8"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H61" s="10"/>
       <c r="J61"/>
@@ -6409,65 +6872,65 @@
         <v>66</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H62" s="10"/>
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10" ht="30" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H63" s="10"/>
       <c r="J63"/>
     </row>
     <row r="64" spans="1:10" ht="63" hidden="1">
       <c r="A64" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H64" s="10"/>
       <c r="J64"/>
     </row>
     <row r="65" spans="1:9" customFormat="1" hidden="1">
       <c r="A65" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="8"/>
@@ -6479,10 +6942,10 @@
     </row>
     <row r="66" spans="1:9" customFormat="1" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="8"/>
@@ -6494,10 +6957,10 @@
     </row>
     <row r="67" spans="1:9" customFormat="1" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="8"/>
@@ -6509,10 +6972,10 @@
     </row>
     <row r="68" spans="1:9" customFormat="1" hidden="1">
       <c r="A68" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="8"/>
@@ -6524,7 +6987,7 @@
     </row>
     <row r="69" spans="1:9" customFormat="1" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -6556,10 +7019,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -6582,10 +7045,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>30</v>
@@ -6606,16 +7069,16 @@
         <v>192</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34.5" customHeight="1">
@@ -6718,10 +7181,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1">
@@ -6744,10 +7207,10 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="29" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="34.5" customHeight="1">
@@ -6803,13 +7266,13 @@
         <v>95</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1">
@@ -6832,7 +7295,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="29" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1">
@@ -6858,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C13" s="8"/>
       <c r="E13" s="10"/>
@@ -6866,10 +7329,10 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1">
@@ -6877,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C14" s="8"/>
       <c r="E14" s="10"/>
@@ -6885,10 +7348,10 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="29" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34.5" customHeight="1">
@@ -6896,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C15" s="8"/>
       <c r="E15" s="10"/>
@@ -6904,10 +7367,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="29" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1">
@@ -6915,21 +7378,21 @@
         <v>0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="29" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
@@ -6937,21 +7400,21 @@
         <v>0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="29" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1">
@@ -6959,21 +7422,21 @@
         <v>0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="29" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="34.5" customHeight="1">
@@ -7197,10 +7660,10 @@
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="34.5" customHeight="1">
@@ -7223,10 +7686,10 @@
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="29" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="34.5" customHeight="1">
@@ -7234,7 +7697,7 @@
         <v>47</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
@@ -7243,11 +7706,11 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="29" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>201</v>
@@ -7258,7 +7721,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
@@ -7267,21 +7730,21 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="29" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="34.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="51" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="8"/>
@@ -7294,7 +7757,12 @@
         <v>155</v>
       </c>
       <c r="H34" s="10"/>
-      <c r="J34" s="2"/>
+      <c r="I34" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="34.5" customHeight="1">
       <c r="A35" s="1" t="s">
@@ -7316,10 +7784,10 @@
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="34.5" customHeight="1">
@@ -7342,10 +7810,10 @@
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="34.5" customHeight="1">
@@ -7366,10 +7834,10 @@
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="34.5" customHeight="1">
@@ -7392,10 +7860,10 @@
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="34.5" customHeight="1">
@@ -7438,10 +7906,10 @@
         <v>171</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="J40" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="34.5" customHeight="1">
@@ -7462,10 +7930,10 @@
       <c r="G41" s="18"/>
       <c r="H41" s="10"/>
       <c r="I41" s="29" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="J41" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="34.5" customHeight="1">
@@ -7473,7 +7941,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
@@ -7490,13 +7958,13 @@
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="34.5" customHeight="1">
@@ -7540,10 +8008,10 @@
         <v>178</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="34.5" customHeight="1">
@@ -7558,7 +8026,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
@@ -7627,10 +8095,10 @@
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34.5" customHeight="1">
@@ -7645,7 +8113,7 @@
         <v>41</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
@@ -7653,10 +8121,10 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="30" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="34.5" customHeight="1">
@@ -7677,10 +8145,10 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="29" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="J50" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34.5" customHeight="1">
@@ -7695,20 +8163,20 @@
         <v>41</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="I51" s="29" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34.5" customHeight="1">
@@ -7756,7 +8224,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
@@ -7767,10 +8235,10 @@
       <c r="G54" s="18"/>
       <c r="H54" s="10"/>
       <c r="I54" s="29" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J54" s="39" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="34.5" customHeight="1">
@@ -7778,23 +8246,23 @@
         <v>18</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18"/>
       <c r="H55" s="10"/>
       <c r="I55" s="29" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J55" s="39" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="34.5" customHeight="1">
@@ -7802,23 +8270,23 @@
         <v>18</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="18"/>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34.5" customHeight="1">
@@ -7954,7 +8422,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H63" s="10"/>
       <c r="J63" s="2"/>
@@ -7973,7 +8441,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H64" s="18"/>
       <c r="J64" s="2"/>
@@ -7992,14 +8460,14 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="29" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="34.5" customHeight="1">
@@ -8016,16 +8484,16 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="18" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="34.5" customHeight="1">
@@ -8039,7 +8507,7 @@
         <v>75</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H67" s="10"/>
       <c r="J67" s="2"/>
@@ -8061,8 +8529,8 @@
         <v>163</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="K69" s="29" t="s">
-        <v>461</v>
+      <c r="K69" s="44" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="34.5" customHeight="1">
@@ -8073,8 +8541,8 @@
         <v>162</v>
       </c>
       <c r="J70" s="2"/>
-      <c r="K70" s="29" t="s">
-        <v>463</v>
+      <c r="K70" s="44" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="34.5" customHeight="1">
@@ -8085,8 +8553,8 @@
         <v>160</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="29" t="s">
-        <v>464</v>
+      <c r="K71" s="45" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="34.5" customHeight="1">
@@ -8094,16 +8562,16 @@
         <v>159</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I72" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K72" s="44" t="s">
         <v>474</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K72" s="29" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="34.5" customHeight="1">
@@ -8111,11 +8579,11 @@
         <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="29" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="29.25">
@@ -8123,30 +8591,30 @@
         <v>164</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="29.25">
       <c r="A75" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="K75" s="29" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -8159,7 +8627,7 @@
       <c r="J78" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J73"/>
+  <autoFilter ref="A1:J75"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8167,6 +8635,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="46" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57">
+      <c r="A2" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25">
+      <c r="A3" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75">
+      <c r="A4" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.75">
+      <c r="A5" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71.25">
+      <c r="A6" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'build1-2'!$A$1:$J$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'build2-3'!$A$1:$J$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'build2-3'!$A$1:$J$76</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="507">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4220,12 +4220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新建类：
-1. layout设置
-2. 实现选择player和campaign的功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>陈思羽、齐锴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4320,10 +4314,6 @@
   </si>
   <si>
     <t>1. build2 里面有关 map loading的测试，是不是应该单独拿一个方法出来？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4845,6 +4835,34 @@
 3.注意delegate和observer关系处理
 4.穿卸装备对attribute的影响实现
 5.level在0-20之间才能set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+1. layout设置
+2. 实现选择player和campaign的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+campaign结束后的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增：
+TestSuite类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前其他的delegate内的抽象方法名字都是**PerformAction格式，建议将方法gameMapViewSelect()改名为gameMapViewSelectPerformAction()，否则在实现类里，不能一眼看出这个是一个delegate的实现方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7016,13 +7034,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -7072,10 +7090,10 @@
         <v>415</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>457</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>416</v>
@@ -7181,10 +7199,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1">
@@ -7207,7 +7225,7 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>199</v>
@@ -7266,13 +7284,13 @@
         <v>95</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>200</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1">
@@ -7295,7 +7313,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1">
@@ -7348,7 +7366,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>432</v>
@@ -7367,7 +7385,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>432</v>
@@ -7389,7 +7407,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>432</v>
@@ -7411,7 +7429,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>432</v>
@@ -7433,7 +7451,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>432</v>
@@ -7710,7 +7728,7 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="29" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>201</v>
@@ -7734,7 +7752,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J33" s="39" t="s">
         <v>202</v>
@@ -7758,7 +7776,7 @@
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J34" s="39" t="s">
         <v>202</v>
@@ -7906,7 +7924,7 @@
         <v>171</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>201</v>
@@ -7930,7 +7948,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="10"/>
       <c r="I41" s="29" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J41" s="39" t="s">
         <v>201</v>
@@ -7964,7 +7982,7 @@
         <v>200</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="34.5" customHeight="1">
@@ -8008,7 +8026,7 @@
         <v>178</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>219</v>
@@ -8121,7 +8139,7 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J49" s="39" t="s">
         <v>201</v>
@@ -8173,7 +8191,7 @@
         <v>211</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J51" s="39" t="s">
         <v>437</v>
@@ -8259,10 +8277,10 @@
       <c r="G55" s="18"/>
       <c r="H55" s="10"/>
       <c r="I55" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="J55" s="39" t="s">
         <v>447</v>
-      </c>
-      <c r="J55" s="39" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="34.5" customHeight="1">
@@ -8283,90 +8301,93 @@
       <c r="G56" s="18"/>
       <c r="H56" s="10"/>
       <c r="I56" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" s="43" t="s">
         <v>449</v>
-      </c>
-      <c r="J56" s="43" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="10"/>
-      <c r="J57" s="2"/>
+      <c r="I57" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="34.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>180</v>
-      </c>
+      <c r="F58" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="10"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="34.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>28</v>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="34.5" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>67</v>
+      <c r="B60" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="18" t="s">
-        <v>174</v>
+      <c r="F60" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="H60" s="10"/>
       <c r="J60" s="2"/>
@@ -8376,18 +8397,16 @@
         <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>172</v>
-      </c>
+      <c r="F61" s="10"/>
       <c r="G61" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H61" s="10"/>
       <c r="J61" s="2"/>
@@ -8397,13 +8416,18 @@
         <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="G62" s="18" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H62" s="10"/>
       <c r="J62" s="2"/>
@@ -8413,16 +8437,13 @@
         <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="18" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H63" s="10"/>
       <c r="J63" s="2"/>
@@ -8432,7 +8453,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
@@ -8440,18 +8461,18 @@
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H64" s="18"/>
+      <c r="G64" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H64" s="10"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="34.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>21</v>
+      <c r="B65" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8" t="s">
@@ -8459,23 +8480,18 @@
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="G65" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="34.5" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
@@ -8484,41 +8500,59 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>210</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="H66" s="10"/>
       <c r="I66" s="29" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A68" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="H68" s="10"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="34.5" customHeight="1">
@@ -8526,23 +8560,20 @@
         <v>159</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="K69" s="44" t="s">
-        <v>473</v>
-      </c>
     </row>
     <row r="70" spans="1:11" ht="34.5" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="34.5" customHeight="1">
@@ -8550,75 +8581,84 @@
         <v>159</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="45" t="s">
-        <v>455</v>
+      <c r="K71" s="44" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="34.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="K72" s="44" t="s">
-        <v>474</v>
+      <c r="B72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="45" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="34.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="29" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="29.25">
+      <c r="K73" s="44" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="34.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="29" t="s">
         <v>458</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="29.25">
       <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="29.25">
+      <c r="A76" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B76" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="K75" s="29" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="J76" s="39"/>
+      <c r="I76" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="77" spans="1:11">
       <c r="J77" s="39"/>
@@ -8626,8 +8666,11 @@
     <row r="78" spans="1:11">
       <c r="J78" s="39"/>
     </row>
+    <row r="79" spans="1:11">
+      <c r="J79" s="39"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J75"/>
+  <autoFilter ref="A1:J76"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8652,64 +8695,64 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="46" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57">
       <c r="A2" s="49" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="71.25">
       <c r="A3" s="49" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.75">
       <c r="A4" s="49" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99.75">
       <c r="A5" s="49" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25">
       <c r="A6" s="49" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangguangbi/Documents/RPGGame/dev/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="build1-2" sheetId="4" r:id="rId1"/>
@@ -16,8 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'build1-2'!$A$1:$J$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'build2-3'!$A$1:$J$76</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="511">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4702,8 +4710,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -4775,8 +4782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -4865,12 +4871,24 @@
     <t>目前其他的delegate内的抽象方法名字都是**PerformAction格式，建议将方法gameMapViewSelect()改名为gameMapViewSelectPerformAction()，否则在实现类里，不能一眼看出这个是一个delegate的实现方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>zgb：unequip这个方法里有两个observer吗？为什么setChanged两次？</t>
+  </si>
+  <si>
+    <t>zgb：有个问题，playerPanel放在gamemapView上会被挡住，不知道这个需不需要改？</t>
+  </si>
+  <si>
+    <t>zgb：创建人物，level低的时候，hp可能是0，正常吗？</t>
+  </si>
+  <si>
+    <t>zgb：hp是血量 health  point，不是hit poinit吧</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5301,7 +5319,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5603,31 +5621,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="53.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>220</v>
       </c>
@@ -5659,7 +5677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="94.5" hidden="1">
+    <row r="2" spans="1:10" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
@@ -5677,7 +5695,7 @@
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="78.75" hidden="1">
+    <row r="3" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -5700,7 +5718,7 @@
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="57">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>237</v>
       </c>
@@ -5726,7 +5744,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="78.75" hidden="1">
+    <row r="5" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>228</v>
       </c>
@@ -5742,7 +5760,7 @@
       <c r="H5" s="10"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5761,7 +5779,7 @@
       <c r="H6" s="10"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" ht="94.5" hidden="1">
+    <row r="7" spans="1:10" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>228</v>
       </c>
@@ -5779,7 +5797,7 @@
       <c r="H7" s="10"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -5798,7 +5816,7 @@
       <c r="H8" s="10"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" ht="220.5">
+    <row r="9" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -5823,7 +5841,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>237</v>
       </c>
@@ -5842,7 +5860,7 @@
       <c r="H10" s="10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="216.75">
+    <row r="11" spans="1:10" ht="227" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>228</v>
       </c>
@@ -5868,7 +5886,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="78.75" hidden="1">
+    <row r="12" spans="1:10" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>228</v>
       </c>
@@ -5888,7 +5906,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>228</v>
       </c>
@@ -5902,7 +5920,7 @@
       <c r="H13" s="10"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="257.25" hidden="1">
+    <row r="14" spans="1:10" ht="298" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>266</v>
       </c>
@@ -5920,7 +5938,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="126" hidden="1">
+    <row r="15" spans="1:10" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>270</v>
       </c>
@@ -5940,7 +5958,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>266</v>
       </c>
@@ -5956,7 +5974,7 @@
       <c r="H16" s="10"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="141.75" hidden="1">
+    <row r="17" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>266</v>
       </c>
@@ -5974,7 +5992,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>266</v>
       </c>
@@ -5990,7 +6008,7 @@
       <c r="H18" s="10"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>266</v>
       </c>
@@ -6006,7 +6024,7 @@
       <c r="H19" s="10"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="71.25">
+    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>281</v>
       </c>
@@ -6032,7 +6050,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31.5" hidden="1">
+    <row r="21" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>281</v>
       </c>
@@ -6053,7 +6071,7 @@
       <c r="H21" s="10"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="63" hidden="1">
+    <row r="22" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>281</v>
       </c>
@@ -6072,7 +6090,7 @@
       <c r="H22" s="10"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="31.5" hidden="1">
+    <row r="23" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>281</v>
       </c>
@@ -6091,7 +6109,7 @@
       <c r="H23" s="10"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="31.5" hidden="1">
+    <row r="24" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -6110,7 +6128,7 @@
       <c r="H24" s="10"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="31.5" hidden="1">
+    <row r="25" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>281</v>
       </c>
@@ -6129,7 +6147,7 @@
       <c r="H25" s="10"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="126">
+    <row r="26" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>281</v>
       </c>
@@ -6155,7 +6173,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="72">
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>301</v>
       </c>
@@ -6174,7 +6192,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="78.75">
+    <row r="28" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>304</v>
       </c>
@@ -6202,7 +6220,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="110.25" hidden="1">
+    <row r="29" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>310</v>
       </c>
@@ -6220,7 +6238,7 @@
       <c r="H29" s="10"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="164.25" hidden="1">
+    <row r="30" spans="1:10" ht="171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>304</v>
       </c>
@@ -6241,7 +6259,7 @@
       <c r="H30" s="10"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>304</v>
       </c>
@@ -6259,7 +6277,7 @@
       <c r="H31" s="10"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="31.5" hidden="1">
+    <row r="32" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -6280,7 +6298,7 @@
       <c r="H32" s="10"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="29.25">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>310</v>
       </c>
@@ -6299,7 +6317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="74.25" hidden="1">
+    <row r="34" spans="1:10" ht="77" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>310</v>
       </c>
@@ -6320,7 +6338,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>304</v>
       </c>
@@ -6338,7 +6356,7 @@
       <c r="H35" s="10"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>310</v>
       </c>
@@ -6357,7 +6375,7 @@
       <c r="H36" s="10"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="28.5" hidden="1">
+    <row r="37" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>310</v>
       </c>
@@ -6376,7 +6394,7 @@
       <c r="H37" s="10"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>310</v>
       </c>
@@ -6394,7 +6412,7 @@
       <c r="H38" s="10"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="60">
+    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>304</v>
       </c>
@@ -6419,7 +6437,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>310</v>
       </c>
@@ -6440,7 +6458,7 @@
       <c r="H40" s="10"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>334</v>
       </c>
@@ -6459,7 +6477,7 @@
       <c r="H41" s="10"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="42.75" hidden="1">
+    <row r="42" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>334</v>
       </c>
@@ -6480,7 +6498,7 @@
       <c r="H42" s="10"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="120" hidden="1">
+    <row r="43" spans="1:10" ht="124" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>334</v>
       </c>
@@ -6503,7 +6521,7 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="44.25" hidden="1">
+    <row r="44" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -6522,7 +6540,7 @@
       <c r="H44" s="10"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="72.75" hidden="1">
+    <row r="45" spans="1:10" ht="76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>334</v>
       </c>
@@ -6543,7 +6561,7 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="74.25" hidden="1">
+    <row r="46" spans="1:10" ht="77" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>334</v>
       </c>
@@ -6564,7 +6582,7 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="28.5">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>334</v>
       </c>
@@ -6588,7 +6606,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="101.25">
+    <row r="48" spans="1:10" ht="122" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>334</v>
       </c>
@@ -6616,7 +6634,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>334</v>
       </c>
@@ -6635,7 +6653,7 @@
       <c r="H49" s="10"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="57">
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>334</v>
       </c>
@@ -6661,7 +6679,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.5">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>334</v>
       </c>
@@ -6680,7 +6698,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28.5">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>334</v>
       </c>
@@ -6699,7 +6717,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="44.25" hidden="1">
+    <row r="53" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>334</v>
       </c>
@@ -6720,7 +6738,7 @@
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="28.5" hidden="1">
+    <row r="54" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -6739,7 +6757,7 @@
       <c r="H54" s="10"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="71.25" hidden="1">
+    <row r="55" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>375</v>
       </c>
@@ -6760,7 +6778,7 @@
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="28.5">
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>375</v>
       </c>
@@ -6784,7 +6802,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="57">
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>382</v>
       </c>
@@ -6810,7 +6828,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="28.5" hidden="1">
+    <row r="58" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6829,7 +6847,7 @@
       <c r="H58" s="10"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" ht="30" hidden="1">
+    <row r="59" spans="1:10" ht="31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>375</v>
       </c>
@@ -6848,7 +6866,7 @@
       <c r="H59" s="18"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>375</v>
       </c>
@@ -6869,7 +6887,7 @@
       </c>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" ht="42.75" hidden="1">
+    <row r="61" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>394</v>
       </c>
@@ -6885,7 +6903,7 @@
       <c r="H61" s="10"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" ht="31.5" hidden="1">
+    <row r="62" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -6906,7 +6924,7 @@
       <c r="H62" s="10"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" ht="30" hidden="1">
+    <row r="63" spans="1:10" ht="31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>375</v>
       </c>
@@ -6927,7 +6945,7 @@
       <c r="H63" s="10"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" ht="63" hidden="1">
+    <row r="64" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>404</v>
       </c>
@@ -6943,7 +6961,7 @@
       <c r="H64" s="10"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1" hidden="1">
+    <row r="65" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>408</v>
       </c>
@@ -6958,7 +6976,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1" hidden="1">
+    <row r="66" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>408</v>
       </c>
@@ -6973,7 +6991,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1" hidden="1">
+    <row r="67" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>408</v>
       </c>
@@ -6988,7 +7006,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1" hidden="1">
+    <row r="68" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>408</v>
       </c>
@@ -7003,7 +7021,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" hidden="1">
+    <row r="69" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>413</v>
       </c>
@@ -7036,29 +7054,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="53.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="31" customWidth="1"/>
-    <col min="11" max="12" width="34.875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="31" customWidth="1"/>
+    <col min="11" max="12" width="34.83203125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="72.75">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="76" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -7099,7 +7117,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34.5" customHeight="1">
+    <row r="2" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7122,7 +7140,7 @@
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1">
+    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7141,7 +7159,7 @@
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:13" ht="34.5" customHeight="1">
+    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7160,7 +7178,7 @@
       <c r="H4" s="10"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="34.5" customHeight="1">
+    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -7179,7 +7197,7 @@
       <c r="H5" s="10"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="34.5" customHeight="1">
+    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7197,7 +7215,9 @@
       <c r="G6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>507</v>
+      </c>
       <c r="I6" s="29" t="s">
         <v>476</v>
       </c>
@@ -7205,7 +7225,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="34.5" customHeight="1">
+    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -7231,7 +7251,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="34.5" customHeight="1">
+    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7249,7 +7269,7 @@
       <c r="H8" s="10"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="34.5" customHeight="1">
+    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -7265,7 +7285,7 @@
       <c r="H9" s="10"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="34.5" customHeight="1">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -7293,7 +7313,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="34.5" customHeight="1">
+    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -7316,7 +7336,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1">
+    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -7334,7 +7354,7 @@
       <c r="H12" s="10"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="34.5" customHeight="1">
+    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7353,7 +7373,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="34.5" customHeight="1">
+    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -7372,7 +7392,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="34.5" customHeight="1">
+    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7391,7 +7411,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="34.5" customHeight="1">
+    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -7413,7 +7433,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="34.5" customHeight="1">
+    <row r="17" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -7435,7 +7455,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="34.5" customHeight="1">
+    <row r="18" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -7457,7 +7477,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="34.5" customHeight="1">
+    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -7477,7 +7497,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="34.5" customHeight="1">
+    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -7495,7 +7515,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="34.5" customHeight="1">
+    <row r="21" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -7511,7 +7531,7 @@
       <c r="H21" s="10"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="34.5" customHeight="1">
+    <row r="22" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -7527,7 +7547,7 @@
       <c r="H22" s="10"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="34.5" customHeight="1">
+    <row r="23" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -7543,7 +7563,7 @@
       <c r="H23" s="10"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="34.5" customHeight="1">
+    <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -7561,7 +7581,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="34.5" customHeight="1">
+    <row r="25" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -7582,7 +7602,7 @@
       <c r="H25" s="10"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -7601,7 +7621,7 @@
       <c r="H26" s="10"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="34.5" customHeight="1">
+    <row r="27" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -7620,7 +7640,7 @@
       <c r="H27" s="10"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="34.5" customHeight="1">
+    <row r="28" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -7639,7 +7659,7 @@
       <c r="H28" s="10"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="34.5" customHeight="1">
+    <row r="29" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -7658,7 +7678,7 @@
       <c r="H29" s="10"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="34.5" customHeight="1">
+    <row r="30" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -7684,7 +7704,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="34.5" customHeight="1">
+    <row r="31" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -7710,7 +7730,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="34.5" customHeight="1">
+    <row r="32" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -7734,7 +7754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="34.5" customHeight="1">
+    <row r="33" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -7758,7 +7778,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="34.5" customHeight="1">
+    <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -7782,7 +7802,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="34.5" customHeight="1">
+    <row r="35" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -7808,7 +7828,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="34.5" customHeight="1">
+    <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -7834,7 +7854,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34.5" customHeight="1">
+    <row r="37" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -7858,7 +7878,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="34.5" customHeight="1">
+    <row r="38" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -7884,7 +7904,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="34.5" customHeight="1">
+    <row r="39" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -7905,7 +7925,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="34.5" customHeight="1">
+    <row r="40" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -7923,6 +7943,9 @@
       <c r="G40" s="16" t="s">
         <v>171</v>
       </c>
+      <c r="H40" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="I40" s="29" t="s">
         <v>497</v>
       </c>
@@ -7930,7 +7953,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="34.5" customHeight="1">
+    <row r="41" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -7954,7 +7977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="34.5" customHeight="1">
+    <row r="42" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -7985,7 +8008,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="34.5" customHeight="1">
+    <row r="43" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -8006,7 +8029,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="34.5" customHeight="1">
+    <row r="44" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -8032,7 +8055,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="34.5" customHeight="1">
+    <row r="45" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -8055,7 +8078,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="34.5" customHeight="1">
+    <row r="46" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -8074,7 +8097,7 @@
       <c r="H46" s="10"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="34.5" customHeight="1">
+    <row r="47" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -8095,7 +8118,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="34.5" customHeight="1">
+    <row r="48" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -8111,7 +8134,9 @@
       <c r="G48" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>509</v>
+      </c>
       <c r="I48" s="29" t="s">
         <v>435</v>
       </c>
@@ -8119,7 +8144,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="34.5" customHeight="1">
+    <row r="49" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -8145,7 +8170,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="34.5" customHeight="1">
+    <row r="50" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -8169,7 +8194,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="34.5" customHeight="1">
+    <row r="51" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -8197,7 +8222,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="34.5" customHeight="1">
+    <row r="52" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -8216,7 +8241,7 @@
       <c r="H52" s="10"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="34.5" customHeight="1">
+    <row r="53" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -8237,7 +8262,7 @@
       <c r="H53" s="10"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="34.5" customHeight="1">
+    <row r="54" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -8259,7 +8284,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="34.5" customHeight="1">
+    <row r="55" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -8283,7 +8308,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="34.5" customHeight="1">
+    <row r="56" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -8299,7 +8324,9 @@
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="10" t="s">
+        <v>508</v>
+      </c>
       <c r="I56" s="29" t="s">
         <v>448</v>
       </c>
@@ -8307,7 +8334,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="34.5" customHeight="1">
+    <row r="57" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -8329,7 +8356,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="34.5" customHeight="1">
+    <row r="58" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -8350,7 +8377,7 @@
       <c r="H58" s="10"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="34.5" customHeight="1">
+    <row r="59" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -8371,7 +8398,7 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="34.5" customHeight="1">
+    <row r="60" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -8392,7 +8419,7 @@
       <c r="H60" s="10"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="34.5" customHeight="1">
+    <row r="61" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -8411,7 +8438,7 @@
       <c r="H61" s="10"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="34.5" customHeight="1">
+    <row r="62" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -8432,7 +8459,7 @@
       <c r="H62" s="10"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="34.5" customHeight="1">
+    <row r="63" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -8448,7 +8475,7 @@
       <c r="H63" s="10"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="34.5" customHeight="1">
+    <row r="64" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -8467,7 +8494,7 @@
       <c r="H64" s="10"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="34.5" customHeight="1">
+    <row r="65" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -8486,7 +8513,7 @@
       <c r="H65" s="18"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="34.5" customHeight="1">
+    <row r="66" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -8510,7 +8537,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="34.5" customHeight="1">
+    <row r="67" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -8539,7 +8566,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="34.5" customHeight="1">
+    <row r="68" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>73</v>
       </c>
@@ -8555,7 +8582,7 @@
       <c r="H68" s="10"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:11" ht="34.5" customHeight="1">
+    <row r="69" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
@@ -8564,7 +8591,7 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="34.5" customHeight="1">
+    <row r="70" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -8576,7 +8603,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="34.5" customHeight="1">
+    <row r="71" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>159</v>
       </c>
@@ -8588,7 +8615,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="34.5" customHeight="1">
+    <row r="72" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
@@ -8600,7 +8627,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="34.5" customHeight="1">
+    <row r="73" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -8617,7 +8644,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="34.5" customHeight="1">
+    <row r="74" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
@@ -8629,7 +8656,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="29.25">
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -8643,7 +8670,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="29.25">
+    <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>459</v>
       </c>
@@ -8660,13 +8687,13 @@
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J79" s="39"/>
     </row>
   </sheetData>
@@ -8686,14 +8713,14 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>481</v>
       </c>
@@ -8704,7 +8731,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>492</v>
       </c>
@@ -8715,7 +8742,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="71.25">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>491</v>
       </c>
@@ -8726,7 +8753,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42.75">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>493</v>
       </c>
@@ -8735,7 +8762,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="99.75">
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
         <v>486</v>
       </c>
@@ -8746,7 +8773,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="71.25">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>488</v>
       </c>
@@ -8769,29 +8796,29 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="25" style="9" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="9"/>
+    <col min="7" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1"/>
-    <row r="5" spans="1:6">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>127</v>
       </c>
@@ -8811,7 +8838,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -8823,7 +8850,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="22" t="s">
         <v>137</v>
@@ -8835,7 +8862,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8845,7 +8872,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
@@ -8857,7 +8884,7 @@
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -8869,7 +8896,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -8881,7 +8908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="22" t="s">
         <v>138</v>
@@ -8893,7 +8920,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -8903,7 +8930,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
@@ -8914,7 +8941,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" ht="28.5">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
         <v>143</v>
@@ -8925,7 +8952,7 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
         <v>146</v>
       </c>
@@ -8936,7 +8963,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="2:6" ht="28.5">
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="25"/>
@@ -8945,7 +8972,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="28.5">
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
@@ -8954,7 +8981,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="2:6" ht="28.5">
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
         <v>150</v>
@@ -8963,7 +8990,7 @@
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="2:6" ht="28.5">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
         <v>151</v>
@@ -8972,7 +8999,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="2:6" ht="29.25" thickBot="1">
+    <row r="21" spans="2:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -8981,77 +9008,77 @@
       </c>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="510">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4879,9 +4879,6 @@
   </si>
   <si>
     <t>zgb：创建人物，level低的时候，hp可能是0，正常吗？</t>
-  </si>
-  <si>
-    <t>zgb：hp是血量 health  point，不是hit poinit吧</t>
   </si>
 </sst>
 </file>
@@ -7055,10 +7052,10 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7942,9 +7939,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>510</v>
       </c>
       <c r="I40" s="29" t="s">
         <v>497</v>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangguangbi/Documents/RPGGame/dev/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="build1-2" sheetId="4" r:id="rId1"/>
@@ -23,9 +18,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="511">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4296,10 +4288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. fileNameToName() 34,是不是应该改成小写的文件名？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4318,10 +4306,6 @@
   <si>
     <t>新增：
 新增对Play类的测试类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. build2 里面有关 map loading的测试，是不是应该单独拿一个方法出来？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4880,12 +4864,24 @@
   <si>
     <t>zgb：创建人物，level低的时候，hp可能是0，正常吗？</t>
   </si>
+  <si>
+    <t>1. fileNameToName() 34,是不是应该改成小写的文件名？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. build2 里面有关 map loading的测试，是不是应该单独拿一个方法出来？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议改名，让所有builder设计的类排序在一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5316,7 +5312,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5618,7 +5614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5628,21 +5624,21 @@
       <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="34.83203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="53.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="44.25">
       <c r="A1" s="3" t="s">
         <v>220</v>
       </c>
@@ -5674,7 +5670,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="94.5" hidden="1">
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
@@ -5692,7 +5688,7 @@
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="78.75" hidden="1">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -5715,7 +5711,7 @@
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="57">
       <c r="A4" s="1" t="s">
         <v>237</v>
       </c>
@@ -5741,7 +5737,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="78.75" hidden="1">
       <c r="A5" s="1" t="s">
         <v>228</v>
       </c>
@@ -5757,7 +5753,7 @@
       <c r="H5" s="10"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5776,7 +5772,7 @@
       <c r="H6" s="10"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="94.5" hidden="1">
       <c r="A7" s="1" t="s">
         <v>228</v>
       </c>
@@ -5794,7 +5790,7 @@
       <c r="H7" s="10"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -5813,7 +5809,7 @@
       <c r="H8" s="10"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="220.5">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -5838,7 +5834,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="1" t="s">
         <v>237</v>
       </c>
@@ -5857,7 +5853,7 @@
       <c r="H10" s="10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="227" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="216.75">
       <c r="A11" s="1" t="s">
         <v>228</v>
       </c>
@@ -5883,7 +5879,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="78.75" hidden="1">
       <c r="A12" s="1" t="s">
         <v>228</v>
       </c>
@@ -5903,7 +5899,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="1" t="s">
         <v>228</v>
       </c>
@@ -5917,7 +5913,7 @@
       <c r="H13" s="10"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="298" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="257.25" hidden="1">
       <c r="A14" s="1" t="s">
         <v>266</v>
       </c>
@@ -5935,7 +5931,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="126" hidden="1">
       <c r="A15" s="1" t="s">
         <v>270</v>
       </c>
@@ -5955,7 +5951,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="1" t="s">
         <v>266</v>
       </c>
@@ -5971,7 +5967,7 @@
       <c r="H16" s="10"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="141.75" hidden="1">
       <c r="A17" s="1" t="s">
         <v>266</v>
       </c>
@@ -5989,7 +5985,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="1" t="s">
         <v>266</v>
       </c>
@@ -6005,7 +6001,7 @@
       <c r="H18" s="10"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="1" t="s">
         <v>266</v>
       </c>
@@ -6021,7 +6017,7 @@
       <c r="H19" s="10"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="71.25">
       <c r="A20" s="1" t="s">
         <v>281</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="31.5" hidden="1">
       <c r="A21" s="1" t="s">
         <v>281</v>
       </c>
@@ -6068,7 +6064,7 @@
       <c r="H21" s="10"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="63" hidden="1">
       <c r="A22" s="1" t="s">
         <v>281</v>
       </c>
@@ -6087,7 +6083,7 @@
       <c r="H22" s="10"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="31.5" hidden="1">
       <c r="A23" s="1" t="s">
         <v>281</v>
       </c>
@@ -6106,7 +6102,7 @@
       <c r="H23" s="10"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="31.5" hidden="1">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -6125,7 +6121,7 @@
       <c r="H24" s="10"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="31.5" hidden="1">
       <c r="A25" s="1" t="s">
         <v>281</v>
       </c>
@@ -6144,7 +6140,7 @@
       <c r="H25" s="10"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="126">
       <c r="A26" s="1" t="s">
         <v>281</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="72">
       <c r="A27" s="1" t="s">
         <v>301</v>
       </c>
@@ -6189,7 +6185,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="78.75">
       <c r="A28" s="1" t="s">
         <v>304</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="110.25" hidden="1">
       <c r="A29" s="1" t="s">
         <v>310</v>
       </c>
@@ -6235,7 +6231,7 @@
       <c r="H29" s="10"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="164.25" hidden="1">
       <c r="A30" s="1" t="s">
         <v>304</v>
       </c>
@@ -6256,7 +6252,7 @@
       <c r="H30" s="10"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="1" t="s">
         <v>304</v>
       </c>
@@ -6274,7 +6270,7 @@
       <c r="H31" s="10"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="31.5" hidden="1">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -6295,7 +6291,7 @@
       <c r="H32" s="10"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="29.25">
       <c r="A33" s="1" t="s">
         <v>310</v>
       </c>
@@ -6314,7 +6310,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="77" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="74.25" hidden="1">
       <c r="A34" s="1" t="s">
         <v>310</v>
       </c>
@@ -6335,7 +6331,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1" t="s">
         <v>304</v>
       </c>
@@ -6353,7 +6349,7 @@
       <c r="H35" s="10"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
         <v>310</v>
       </c>
@@ -6372,7 +6368,7 @@
       <c r="H36" s="10"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="28.5" hidden="1">
       <c r="A37" s="1" t="s">
         <v>310</v>
       </c>
@@ -6391,7 +6387,7 @@
       <c r="H37" s="10"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
         <v>310</v>
       </c>
@@ -6409,7 +6405,7 @@
       <c r="H38" s="10"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="60">
       <c r="A39" s="1" t="s">
         <v>304</v>
       </c>
@@ -6434,7 +6430,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1" t="s">
         <v>310</v>
       </c>
@@ -6455,7 +6451,7 @@
       <c r="H40" s="10"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1" t="s">
         <v>334</v>
       </c>
@@ -6474,7 +6470,7 @@
       <c r="H41" s="10"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="42.75" hidden="1">
       <c r="A42" s="1" t="s">
         <v>334</v>
       </c>
@@ -6495,7 +6491,7 @@
       <c r="H42" s="10"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="124" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="120" hidden="1">
       <c r="A43" s="1" t="s">
         <v>334</v>
       </c>
@@ -6518,7 +6514,7 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="44.25" hidden="1">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -6537,7 +6533,7 @@
       <c r="H44" s="10"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="76" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="72.75" hidden="1">
       <c r="A45" s="1" t="s">
         <v>334</v>
       </c>
@@ -6558,7 +6554,7 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="77" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="74.25" hidden="1">
       <c r="A46" s="1" t="s">
         <v>334</v>
       </c>
@@ -6579,7 +6575,7 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="28.5">
       <c r="A47" s="1" t="s">
         <v>334</v>
       </c>
@@ -6603,7 +6599,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="122" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="101.25">
       <c r="A48" s="1" t="s">
         <v>334</v>
       </c>
@@ -6631,7 +6627,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
         <v>334</v>
       </c>
@@ -6650,7 +6646,7 @@
       <c r="H49" s="10"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="57">
       <c r="A50" s="1" t="s">
         <v>334</v>
       </c>
@@ -6676,7 +6672,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="28.5">
       <c r="A51" s="1" t="s">
         <v>334</v>
       </c>
@@ -6695,7 +6691,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="28.5">
       <c r="A52" s="1" t="s">
         <v>334</v>
       </c>
@@ -6714,7 +6710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="44.25" hidden="1">
       <c r="A53" s="1" t="s">
         <v>334</v>
       </c>
@@ -6735,7 +6731,7 @@
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="28.5" hidden="1">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -6754,7 +6750,7 @@
       <c r="H54" s="10"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="71.25" hidden="1">
       <c r="A55" s="1" t="s">
         <v>375</v>
       </c>
@@ -6775,7 +6771,7 @@
       <c r="H55" s="10"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="28.5">
       <c r="A56" s="1" t="s">
         <v>375</v>
       </c>
@@ -6799,7 +6795,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="57">
       <c r="A57" s="1" t="s">
         <v>382</v>
       </c>
@@ -6825,7 +6821,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="28.5" hidden="1">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6844,7 +6840,7 @@
       <c r="H58" s="10"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" ht="31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="30" hidden="1">
       <c r="A59" s="1" t="s">
         <v>375</v>
       </c>
@@ -6863,7 +6859,7 @@
       <c r="H59" s="18"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="1" t="s">
         <v>375</v>
       </c>
@@ -6884,7 +6880,7 @@
       </c>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="42.75" hidden="1">
       <c r="A61" s="1" t="s">
         <v>394</v>
       </c>
@@ -6900,7 +6896,7 @@
       <c r="H61" s="10"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="31.5" hidden="1">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -6921,7 +6917,7 @@
       <c r="H62" s="10"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" ht="31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="30" hidden="1">
       <c r="A63" s="1" t="s">
         <v>375</v>
       </c>
@@ -6942,7 +6938,7 @@
       <c r="H63" s="10"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="63" hidden="1">
       <c r="A64" s="5" t="s">
         <v>404</v>
       </c>
@@ -6958,7 +6954,7 @@
       <c r="H64" s="10"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" customFormat="1" hidden="1">
       <c r="A65" s="1" t="s">
         <v>408</v>
       </c>
@@ -6973,7 +6969,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" customFormat="1" hidden="1">
       <c r="A66" s="1" t="s">
         <v>408</v>
       </c>
@@ -6988,7 +6984,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" customFormat="1" hidden="1">
       <c r="A67" s="1" t="s">
         <v>408</v>
       </c>
@@ -7003,7 +6999,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" customFormat="1" hidden="1">
       <c r="A68" s="1" t="s">
         <v>408</v>
       </c>
@@ -7018,7 +7014,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" customFormat="1" hidden="1">
       <c r="A69" s="1" t="s">
         <v>413</v>
       </c>
@@ -7052,28 +7048,28 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="34.83203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="31" customWidth="1"/>
-    <col min="11" max="12" width="34.83203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="53.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="31" customWidth="1"/>
+    <col min="11" max="12" width="34.875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="76" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="72.75">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -7114,7 +7110,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="34.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7137,7 +7133,7 @@
       <c r="H2" s="10"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="34.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7156,7 +7152,7 @@
       <c r="H3" s="10"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="34.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7175,7 +7171,7 @@
       <c r="H4" s="10"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="34.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -7194,7 +7190,7 @@
       <c r="H5" s="10"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="34.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7213,16 +7209,16 @@
         <v>102</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -7242,13 +7238,13 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="34.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +7262,7 @@
       <c r="H8" s="10"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="34.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -7282,7 +7278,7 @@
       <c r="H9" s="10"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>95</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>200</v>
@@ -7310,7 +7306,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="34.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -7330,10 +7326,10 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="29" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -7351,7 +7347,7 @@
       <c r="H12" s="10"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="34.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7370,7 +7366,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="34.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -7383,13 +7379,16 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="34.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7402,13 +7401,16 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="34.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -7424,13 +7426,16 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -7446,13 +7451,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -7468,13 +7476,16 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="34.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -7494,7 +7505,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="34.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -7512,7 +7523,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="34.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -7528,7 +7539,7 @@
       <c r="H21" s="10"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="34.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -7544,7 +7555,7 @@
       <c r="H22" s="10"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="34.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -7560,7 +7571,7 @@
       <c r="H23" s="10"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="34.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -7578,7 +7589,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="34.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -7599,7 +7610,7 @@
       <c r="H25" s="10"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="34.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -7618,7 +7629,7 @@
       <c r="H26" s="10"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="34.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -7637,7 +7648,7 @@
       <c r="H27" s="10"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="34.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -7656,7 +7667,7 @@
       <c r="H28" s="10"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="34.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -7675,7 +7686,7 @@
       <c r="H29" s="10"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="34.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -7701,7 +7712,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="34.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -7727,7 +7738,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="34.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -7745,13 +7756,13 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="34.5" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -7775,7 +7786,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="34.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -7793,13 +7804,13 @@
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J34" s="39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="34.5" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -7825,7 +7836,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="34.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -7851,7 +7862,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="34.5" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -7875,7 +7886,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="34.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -7901,7 +7912,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="34.5" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -7922,7 +7933,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="34.5" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -7941,13 +7952,13 @@
         <v>171</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="34.5" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -7965,13 +7976,13 @@
       <c r="G41" s="18"/>
       <c r="H41" s="10"/>
       <c r="I41" s="29" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J41" s="39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="34.5" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -7999,10 +8010,10 @@
         <v>200</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="34.5" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -8023,7 +8034,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="34.5" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -8043,13 +8054,13 @@
         <v>178</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="34.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -8072,7 +8083,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="34.5" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -8091,7 +8102,7 @@
       <c r="H46" s="10"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="34.5" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -8112,7 +8123,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="34.5" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -8129,7 +8140,7 @@
         <v>187</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>435</v>
@@ -8138,7 +8149,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="34.5" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -8158,13 +8169,13 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J49" s="39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="34.5" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -8188,7 +8199,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="34.5" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -8210,13 +8221,13 @@
         <v>211</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J51" s="39" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="34.5" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -8235,7 +8246,7 @@
       <c r="H52" s="10"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="34.5" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -8256,7 +8267,7 @@
       <c r="H53" s="10"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="34.5" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -8278,7 +8289,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="34.5" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -8296,13 +8307,13 @@
       <c r="G55" s="18"/>
       <c r="H55" s="10"/>
       <c r="I55" s="29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J55" s="39" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="34.5" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -8319,7 +8330,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="18"/>
       <c r="H56" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I56" s="29" t="s">
         <v>448</v>
@@ -8328,12 +8339,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="34.5" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -8344,13 +8355,13 @@
       <c r="G57" s="18"/>
       <c r="H57" s="10"/>
       <c r="I57" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="34.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -8371,7 +8382,7 @@
       <c r="H58" s="10"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="34.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -8392,7 +8403,7 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="34.5" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -8413,7 +8424,7 @@
       <c r="H60" s="10"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="34.5" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -8432,7 +8443,7 @@
       <c r="H61" s="10"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="34.5" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -8453,7 +8464,7 @@
       <c r="H62" s="10"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="34.5" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -8469,7 +8480,7 @@
       <c r="H63" s="10"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="34.5" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -8488,7 +8499,7 @@
       <c r="H64" s="10"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="34.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -8507,7 +8518,7 @@
       <c r="H65" s="18"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="34.5" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -8531,7 +8542,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="34.5" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -8557,10 +8568,10 @@
         <v>205</v>
       </c>
       <c r="K67" s="29" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="34.5" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>73</v>
       </c>
@@ -8576,7 +8587,7 @@
       <c r="H68" s="10"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="34.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
@@ -8585,7 +8596,7 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="34.5" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -8594,10 +8605,10 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="44" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="34.5" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>159</v>
       </c>
@@ -8606,10 +8617,10 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="44" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="34.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
@@ -8621,7 +8632,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="34.5" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -8629,28 +8640,28 @@
         <v>452</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K73" s="44" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="34.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="29.25">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -8658,36 +8669,36 @@
         <v>457</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="29.25">
       <c r="A76" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B76" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>460</v>
-      </c>
       <c r="I76" s="29" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K76" s="29" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="J79" s="39"/>
     </row>
   </sheetData>
@@ -8707,73 +8718,73 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57">
+      <c r="A2" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="C2" s="11" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>492</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="1:3" ht="71.25">
+      <c r="A3" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="42.75">
+      <c r="A4" s="49" t="s">
         <v>491</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>489</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>493</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.75">
       <c r="A5" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71.25">
+      <c r="A6" s="49" t="s">
         <v>486</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>479</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>488</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -8790,29 +8801,29 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="25" style="9" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="9"/>
+    <col min="7" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" thickBot="1"/>
+    <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
         <v>127</v>
       </c>
@@ -8832,7 +8843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -8844,7 +8855,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="11"/>
       <c r="B7" s="22" t="s">
         <v>137</v>
@@ -8856,7 +8867,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8866,7 +8877,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
@@ -8878,7 +8889,7 @@
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -8890,7 +8901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.5">
       <c r="A11" s="11"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -8902,7 +8913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.5">
       <c r="A12" s="11"/>
       <c r="B12" s="22" t="s">
         <v>138</v>
@@ -8914,7 +8925,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="11"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -8924,7 +8935,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
@@ -8935,7 +8946,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.5">
       <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
         <v>143</v>
@@ -8946,7 +8957,7 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="22" t="s">
         <v>146</v>
       </c>
@@ -8957,7 +8968,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="28.5">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="25"/>
@@ -8966,7 +8977,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="28.5">
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
@@ -8975,7 +8986,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="28.5">
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
         <v>150</v>
@@ -8984,7 +8995,7 @@
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="28.5">
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
         <v>151</v>
@@ -8993,7 +9004,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="2:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="29.25" thickBot="1">
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -9002,77 +9013,77 @@
       </c>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="514">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4254,10 +4254,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>建议将常量改名为“VALIDATION_ERROR_TOO_MANY_ENTRANCES”&amp;"VALIDATION_ERROR_TOO_MANY_EXITS"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. testCorrectCampaign()建议改名为testValidatedCampaign
 2. testWrongCampaign()建议改名为testNonValidatedCampaign</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4306,36 +4302,6 @@
   <si>
     <t>新增：
 新增对Play类的测试类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>建议更名为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ChestPanel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>；</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4343,17 +4309,6 @@
     <rPh sb="0" eb="1">
       <t>qi kai</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1.设置为多个equipments的数据结构，以及相应 增删改查 方法；
-2.和新的EquipmentPanel设置为观察者模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1.设置 width，height 属性，并更改涉及的数组循环代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4530,6 +4485,340 @@
   <si>
     <t>新建类，builder
 ConcteteBuilder 类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类，builder（见sheet Builder）
+Director 类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>properties</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- PlayerBuilder playerBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExplorer explorer = new PlayerExplorer();
+PlayerBuilder tankBuilder= new TankBuilder();
+explorer.setPlayerBuilder(tankBuilder);
+explorer.constructPlayer();
+Player player = explorer.getPlayer;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>methods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- String name
+- int level
+- String type
+- map abilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ setName(String name)
++ setLevel(int level)
++ setPlayerType(String type)
++ generateAbilities(String type)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ getPlayerProduct() : Player
++ createNewPlayer(String name)
++ setLevel(int level)
++ abstract setType()
++ abstract generateAbilities()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Director类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p c PlayerExplorer {}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ setPlayerBuilder(PlayerBuilder playerBuilder)
++ constructPlayer(){
+    playerBuilder.createNewPlayer(String name);
+    playerBuilder.setLevel(int level);
+    playerBuilder.setType();
+    playerBuilder.generateAbilities();}
++ getPlayer() : Player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用类（Drive）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p c PlayCreationScene {}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># Player playerProduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Override
++ setType() { playerProduct.setPlayerType("Tank"); }
++ generateAbilities() { playerProduct.generateAbilities("Tank"); }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抽象Builder类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abstract class PlayerBuilder { }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ class Player{ }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConcreteBuilder类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class TankBuiler extends PlayerBuilder {}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1. 配合controlView的修改，做delegate的代码修改
+2. 添加chest的edit功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1. 添加了右上角的关闭panel的Button
+2. 可以被拖动的功能，用到局部内部类语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayerControlView
+2.button触发新panel显示
+（play过程中点选player时，控制player的，显示属性和inventory两个button；）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+需要拆分，把player属性部分 和 武器槽部分分开；player属性需要添加class、Party两个显示空间；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建：
+1. 代码由原有的 BackpanelPanel 和 PlayerPanel（武器槽）部分代码合并而来
+2. 添加Delegate内部类，实现两个抽象方法，分别作为enhanced显示和exchange装备使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+playButton 动作添加为触发ReadyScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.添加3个button设置class
+2.各panel重新布局
+3.注意delegate和observer关系处理
+4.穿卸装备对attribute的影响实现
+5.level在0-20之间才能set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+1. layout设置
+2. 实现选择player和campaign的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类：
+campaign结束后的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增：
+TestSuite类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前其他的delegate内的抽象方法名字都是**PerformAction格式，建议将方法gameMapViewSelect()改名为gameMapViewSelectPerformAction()，否则在实现类里，不能一眼看出这个是一个delegate的实现方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgb：unequip这个方法里有两个observer吗？为什么setChanged两次？</t>
+  </si>
+  <si>
+    <t>zgb：有个问题，playerPanel放在gamemapView上会被挡住，不知道这个需不需要改？</t>
+  </si>
+  <si>
+    <t>zgb：创建人物，level低的时候，hp可能是0，正常吗？</t>
+  </si>
+  <si>
+    <t>1. fileNameToName() 34,是不是应该改成小写的文件名？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. build2 里面有关 map loading的测试，是不是应该单独拿一个方法出来？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议改名，让所有builder设计的类排序在一起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4543,337 +4832,61 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新建类，builder（见sheet Builder）
-Director 类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>properties</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- PlayerBuilder playerBuilder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerExplorer explorer = new PlayerExplorer();
-PlayerBuilder tankBuilder= new TankBuilder();
-explorer.setPlayerBuilder(tankBuilder);
-explorer.constructPlayer();
-Player player = explorer.getPlayer;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>methods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- String name
-- int level
-- String type
-- map abilities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+ setName(String name)
-+ setLevel(int level)
-+ setPlayerType(String type)
-+ generateAbilities(String type)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+ getPlayerProduct() : Player
-+ createNewPlayer(String name)
-+ setLevel(int level)
-+ abstract setType()
-+ abstract generateAbilities()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Director类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>修改：
+1.设置为多个equipments的数据结构，以及相应 增删改查 方法；
+2.和新的EquipmentPanel设置为观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：
+1.设置 width，height 属性，并更改涉及的数组循环代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议将常量改名为“VALIDATION_ERROR_TOO_MANY_ENTRANCES”&amp;"VALIDATION_ERROR_TOO_MANY_EXITS"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-p c PlayerExplorer {}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+ setPlayerBuilder(PlayerBuilder playerBuilder)
-+ constructPlayer(){
-    playerBuilder.createNewPlayer(String name);
-    playerBuilder.setLevel(int level);
-    playerBuilder.setType();
-    playerBuilder.generateAbilities();}
-+ getPlayer() : Player</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>调用类（Drive）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      </rPr>
+      <t>建议更名为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ChestPanel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-p c PlayCreationScene {}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># Player playerProduct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>@Override
-+ setType() { playerProduct.setPlayerType("Tank"); }
-+ generateAbilities() { playerProduct.generateAbilities("Tank"); }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>抽象Builder类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> abstract class PlayerBuilder { }</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实体类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+ class Player{ }</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ConcreteBuilder类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> class TankBuiler extends PlayerBuilder {}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1. 配合controlView的修改，做delegate的代码修改
-2. 添加chest的edit功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1. 添加了右上角的关闭panel的Button
-2. 可以被拖动的功能，用到局部内部类语法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建：
-1.作为playing过程中PlayScene右侧controlView，部分代码重用PlayerControlView
-2.button触发新panel显示
-（play过程中点选player时，控制player的，显示属性和inventory两个button；）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-需要拆分，把player属性部分 和 武器槽部分分开；player属性需要添加class、Party两个显示空间；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建：
-1. 代码由原有的 BackpanelPanel 和 PlayerPanel（武器槽）部分代码合并而来
-2. 添加Delegate内部类，实现两个抽象方法，分别作为enhanced显示和exchange装备使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-playButton 动作添加为触发ReadyScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：
-1.添加3个button设置class
-2.各panel重新布局
-3.注意delegate和observer关系处理
-4.穿卸装备对attribute的影响实现
-5.level在0-20之间才能set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建类：
-1. layout设置
-2. 实现选择player和campaign的功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建类：
-campaign结束后的界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈思羽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增：
-TestSuite类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前其他的delegate内的抽象方法名字都是**PerformAction格式，建议将方法gameMapViewSelect()改名为gameMapViewSelectPerformAction()，否则在实现类里，不能一眼看出这个是一个delegate的实现方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgb：unequip这个方法里有两个observer吗？为什么setChanged两次？</t>
-  </si>
-  <si>
-    <t>zgb：有个问题，playerPanel放在gamemapView上会被挡住，不知道这个需不需要改？</t>
-  </si>
-  <si>
-    <t>zgb：创建人物，level低的时候，hp可能是0，正常吗？</t>
-  </si>
-  <si>
-    <t>1. fileNameToName() 34,是不是应该改成小写的文件名？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. build2 里面有关 map loading的测试，是不是应该单独拿一个方法出来？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议改名，让所有builder设计的类排序在一起</t>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. generateAbility(String type) testcase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有人排序在一个list里；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效；
+相应decorate pattern</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4881,7 +4894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4981,12 +4994,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -5025,6 +5032,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5171,7 +5191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5286,22 +5306,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5309,6 +5329,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7048,10 +7074,10 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -7101,10 +7127,10 @@
         <v>415</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>455</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>456</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>416</v>
@@ -7209,13 +7235,13 @@
         <v>102</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1">
@@ -7238,7 +7264,7 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="29" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>199</v>
@@ -7261,6 +7287,9 @@
       </c>
       <c r="H8" s="10"/>
       <c r="J8" s="2"/>
+      <c r="L8" s="29" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="34.5" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -7297,13 +7326,13 @@
         <v>95</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>453</v>
+      <c r="K10" s="52" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1">
@@ -7326,7 +7355,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="29" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1">
@@ -7365,6 +7394,9 @@
       <c r="J13" s="2" t="s">
         <v>433</v>
       </c>
+      <c r="L13" s="29" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="34.5" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -7379,13 +7411,13 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="29" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>432</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34.5" customHeight="1">
@@ -7401,13 +7433,13 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="29" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>432</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="34.5" customHeight="1">
@@ -7426,13 +7458,13 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="29" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>432</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="34.5" customHeight="1">
@@ -7451,13 +7483,13 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="29" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>432</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1">
@@ -7476,13 +7508,13 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="29" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>432</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="34.5" customHeight="1">
@@ -7756,7 +7788,7 @@
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="29" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>201</v>
@@ -7804,7 +7836,7 @@
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J34" s="39" t="s">
         <v>202</v>
@@ -7952,7 +7984,7 @@
         <v>171</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>201</v>
@@ -7976,7 +8008,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="10"/>
       <c r="I41" s="29" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J41" s="39" t="s">
         <v>201</v>
@@ -8009,8 +8041,8 @@
       <c r="J42" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>463</v>
+      <c r="K42" s="53" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="34.5" customHeight="1">
@@ -8054,7 +8086,7 @@
         <v>178</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>219</v>
@@ -8140,7 +8172,7 @@
         <v>187</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>435</v>
@@ -8169,7 +8201,7 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J49" s="39" t="s">
         <v>201</v>
@@ -8221,7 +8253,7 @@
         <v>211</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="J51" s="39" t="s">
         <v>437</v>
@@ -8307,7 +8339,7 @@
       <c r="G55" s="18"/>
       <c r="H55" s="10"/>
       <c r="I55" s="29" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J55" s="39" t="s">
         <v>447</v>
@@ -8330,7 +8362,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="18"/>
       <c r="H56" s="10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I56" s="29" t="s">
         <v>448</v>
@@ -8344,7 +8376,7 @@
         <v>18</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -8355,10 +8387,10 @@
       <c r="G57" s="18"/>
       <c r="H57" s="10"/>
       <c r="I57" s="29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="34.5" customHeight="1">
@@ -8499,7 +8531,7 @@
       <c r="H64" s="10"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="34.5" customHeight="1">
+    <row r="65" spans="1:12" ht="34.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -8518,7 +8550,7 @@
       <c r="H65" s="18"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="34.5" customHeight="1">
+    <row r="66" spans="1:12" ht="34.5" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -8542,7 +8574,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="34.5" customHeight="1">
+    <row r="67" spans="1:12" ht="34.5" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -8567,11 +8599,11 @@
       <c r="J67" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K67" s="29" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="34.5" customHeight="1">
+      <c r="K67" s="52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="34.5" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>73</v>
       </c>
@@ -8587,7 +8619,7 @@
       <c r="H68" s="10"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:11" ht="34.5" customHeight="1">
+    <row r="69" spans="1:12" ht="34.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
@@ -8596,7 +8628,7 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="34.5" customHeight="1">
+    <row r="70" spans="1:12" ht="34.5" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -8605,10 +8637,13 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="44" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="34.5" customHeight="1">
+        <v>465</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="34.5" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>159</v>
       </c>
@@ -8617,10 +8652,10 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="34.5" customHeight="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="34.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
@@ -8629,10 +8664,10 @@
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="45" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="34.5" customHeight="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="34.5" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -8640,65 +8675,65 @@
         <v>452</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K73" s="44" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="34.5" customHeight="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="34.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="29" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="29.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="29.25">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B75" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="29.25">
+      <c r="A76" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I75" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="29.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>459</v>
-      </c>
       <c r="I76" s="29" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K76" s="29" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12">
       <c r="J79" s="39"/>
     </row>
   </sheetData>
@@ -8727,64 +8762,64 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="46" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57">
       <c r="A2" s="49" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="71.25">
       <c r="A3" s="49" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.75">
       <c r="A4" s="49" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99.75">
       <c r="A5" s="49" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25">
       <c r="A6" s="49" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="build1-2" sheetId="4" r:id="rId1"/>
     <sheet name="build2-3" sheetId="1" r:id="rId2"/>
-    <sheet name="Builder" sheetId="5" r:id="rId3"/>
-    <sheet name="角色扮演" sheetId="2" r:id="rId4"/>
+    <sheet name="Decorator" sheetId="6" r:id="rId3"/>
+    <sheet name="Builder" sheetId="5" r:id="rId4"/>
+    <sheet name="角色扮演" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'build1-2'!$A$1:$J$69</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="544">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4889,12 +4890,259 @@
 相应decorate pattern</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Joey类图里的类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey例子里的类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG Game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcreteComponet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcteteDecoratorA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcteteDecoratorB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Espresso / SimpleCoffee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprinkles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcteteDecoratorC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurningDecorator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreezingDecorator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlayingDecorator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrighteningDecorator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacifyingDecorator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcteteDecoratorD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcteteDecoratorE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecoratorDriver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemEditingScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Component（接口）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++operation()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coffee（抽象类）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++getCost()
++getIngredients()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DecoratorComponent（接口）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++getenchantments()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Decorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++Component component</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CoffeeDecorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++Coffee decoratedCoffee</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WeaponDecorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++DecoratorComponent decoratedWeapon</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未在图中显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5046,6 +5294,37 @@
       <name val="DengXian"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5191,7 +5470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5336,6 +5615,16 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5351,6 +5640,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>216793</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>837952</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="216793" y="2724150"/>
+          <a:ext cx="5078859" cy="4240256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7073,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8746,6 +9108,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="29.125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="54" customFormat="1">
+      <c r="A1" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="54">
+      <c r="A2" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8828,7 +9322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -10,8 +10,9 @@
     <sheet name="build1-2" sheetId="4" r:id="rId1"/>
     <sheet name="build2-3" sheetId="1" r:id="rId2"/>
     <sheet name="Decorator" sheetId="6" r:id="rId3"/>
-    <sheet name="Builder" sheetId="5" r:id="rId4"/>
-    <sheet name="角色扮演" sheetId="2" r:id="rId5"/>
+    <sheet name="Builder" sheetId="7" r:id="rId4"/>
+    <sheet name="Builder-detail" sheetId="5" r:id="rId5"/>
+    <sheet name="角色扮演" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'build1-2'!$A$1:$J$69</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="563">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4975,45 +4976,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未在图中显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Component（接口）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>DecoratorComponent（接口）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-+operation()</t>
-    </r>
++getenchantments()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Builder（抽象类）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shelter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShelterBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExplorer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TropicalShelterBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolarShelterBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explorer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcreteBuilder A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcreteBuilder B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcreteBuilder C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedition </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未体现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCreationScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BullyBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NimbleBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Component（接口）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++operation()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Coffee（抽象类）</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
@@ -5029,24 +5143,24 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DecoratorComponent（接口）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>Decorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-+getenchantments()</t>
++Component component</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5054,24 +5168,24 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Decorator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>CoffeeDecorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-+Component component</t>
++Coffee decoratedCoffee</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5079,62 +5193,25 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CoffeeDecorator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>WeaponDecorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-+Coffee decoratedCoffee</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WeaponDecorator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 +DecoratorComponent decoratedWeapon</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未在图中显示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5142,7 +5219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5303,14 +5380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -5319,7 +5388,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -5470,7 +5539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5616,15 +5685,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5646,16 +5718,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>216793</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16768</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>837952</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134981</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627155</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5679,8 +5751,81 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="216793" y="2724150"/>
-          <a:ext cx="5078859" cy="4240256"/>
+          <a:off x="6655693" y="247649"/>
+          <a:ext cx="4725187" cy="3944981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="514350" y="1676400"/>
+          <a:ext cx="5410200" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9111,39 +9256,39 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29.125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5" style="59" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="54" customFormat="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:3" s="54" customFormat="1" ht="14.25">
+      <c r="A1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54">
+    <row r="2" spans="1:3" ht="42.75">
       <c r="A2" s="56" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="57" t="s">
         <v>517</v>
       </c>
@@ -9154,18 +9299,18 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36">
+    <row r="4" spans="1:3" ht="28.5">
       <c r="A4" s="56" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="57" t="s">
         <v>518</v>
       </c>
@@ -9176,7 +9321,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="57" t="s">
         <v>519</v>
       </c>
@@ -9187,7 +9332,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="57" t="s">
         <v>525</v>
       </c>
@@ -9198,31 +9343,31 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="57" t="s">
         <v>531</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="57" t="s">
         <v>532</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="57" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>533</v>
@@ -9240,11 +9385,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -9322,12 +9597,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -9335,7 +9610,7 @@
     <col min="1" max="1" width="14" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="9" customWidth="1"/>
     <col min="5" max="5" width="25" style="9" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="9" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="9"/>
@@ -9430,7 +9705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>

--- a/dev/doc/class.xlsx
+++ b/dev/doc/class.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="631" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="build1-2" sheetId="4" r:id="rId1"/>
     <sheet name="build2-3" sheetId="1" r:id="rId2"/>
-    <sheet name="Decorator" sheetId="6" r:id="rId3"/>
-    <sheet name="Builder" sheetId="7" r:id="rId4"/>
-    <sheet name="Builder-detail" sheetId="5" r:id="rId5"/>
-    <sheet name="角色扮演" sheetId="2" r:id="rId6"/>
+    <sheet name="Decorator-new" sheetId="8" r:id="rId3"/>
+    <sheet name="Decorator" sheetId="6" r:id="rId4"/>
+    <sheet name="Builder" sheetId="7" r:id="rId5"/>
+    <sheet name="Builder-detail" sheetId="5" r:id="rId6"/>
+    <sheet name="角色扮演" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'build1-2'!$A$1:$J$69</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="567">
   <si>
     <t>logic</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5211,6 +5212,86 @@
       </rPr>
       <t xml:space="preserve">
 +DecoratorComponent decoratedWeapon</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weapon（接口）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ enchantmentsChainText()
++ getOrigin()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponSolid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WeaponDecorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Weapon decoratedWeapon</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CoffeeDecorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Coffee decoratedCoffee</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5791,6 +5872,79 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16768</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627155</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6655693" y="247649"/>
+          <a:ext cx="4725187" cy="3944981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -9256,6 +9410,138 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="54" customFormat="1" ht="14.25">
+      <c r="A1" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.75">
+      <c r="A2" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5">
+      <c r="A4" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="A5" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="A10" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9383,7 +9669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -9513,7 +9799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -9597,7 +9883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
